--- a/config_8.10/shoping_config.xlsx
+++ b/config_8.10/shoping_config.xlsx
@@ -219,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5499" uniqueCount="1891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5543" uniqueCount="1893">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6251,9 +6251,6 @@
     <t>{type="permission_class",class_value = "actp_cjj_gej_exchange" }</t>
   </si>
   <si>
-    <t>{type="permission_class",class_value = "hqjnh_046_nor_hllb" }</t>
-  </si>
-  <si>
     <t>{type="permission_class",class_value = "fclb_free_002" }</t>
   </si>
   <si>
@@ -7022,10 +7019,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>福袋礼包模板</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>{type="permission_class",class_value = "hqjnh_046_cjj_hllb" }</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -7034,6 +7027,22 @@
   </si>
   <si>
     <t>爱心礼包</t>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hqjnh_046_nor_hllb" }</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡福袋礼包模板</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>非冲金鸡福袋礼包模板</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7270,7 +7279,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7526,9 +7535,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7555,6 +7561,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -13454,13 +13466,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO698"/>
+  <dimension ref="A1:AO704"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H669" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="K687" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G671" sqref="G671:G682"/>
+      <selection pane="bottomRight" activeCell="K710" sqref="K710"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -13472,7 +13484,7 @@
     <col min="5" max="5" width="4.125" style="21" customWidth="1"/>
     <col min="6" max="6" width="11.75" style="35" customWidth="1"/>
     <col min="7" max="7" width="29" style="35" customWidth="1"/>
-    <col min="8" max="8" width="17.375" style="35" customWidth="1"/>
+    <col min="8" max="8" width="22.875" style="35" customWidth="1"/>
     <col min="9" max="9" width="29" style="35" customWidth="1"/>
     <col min="10" max="10" width="27.75" style="35" customWidth="1"/>
     <col min="11" max="11" width="63.125" style="35" customWidth="1"/>
@@ -17974,7 +17986,7 @@
         <v>351</v>
       </c>
       <c r="K77" s="83" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="M77" s="28">
         <v>-20</v>
@@ -17998,7 +18010,7 @@
         <v>353</v>
       </c>
       <c r="X77" s="83" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="Y77" s="79" t="s">
         <v>182</v>
@@ -55677,467 +55689,467 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:40" s="92" customFormat="1">
-      <c r="A655" s="92">
+    <row r="655" spans="1:40" s="91" customFormat="1">
+      <c r="A655" s="91">
         <v>654</v>
       </c>
-      <c r="B655" s="92">
+      <c r="B655" s="91">
         <v>10571</v>
       </c>
-      <c r="F655" s="92">
-        <v>1</v>
-      </c>
-      <c r="G655" s="92" t="s">
+      <c r="F655" s="91">
+        <v>1</v>
+      </c>
+      <c r="G655" s="91" t="s">
+        <v>1879</v>
+      </c>
+      <c r="H655" s="96" t="s">
+        <v>1890</v>
+      </c>
+      <c r="K655" s="91" t="s">
+        <v>1606</v>
+      </c>
+      <c r="M655" s="91">
+        <v>-31</v>
+      </c>
+      <c r="N655" s="91">
+        <v>0</v>
+      </c>
+      <c r="O655" s="91">
+        <v>0</v>
+      </c>
+      <c r="P655" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q655" s="91">
+        <v>99800</v>
+      </c>
+      <c r="R655" s="91" t="s">
+        <v>1607</v>
+      </c>
+      <c r="S655" s="89" t="s">
+        <v>1135</v>
+      </c>
+      <c r="X655" s="91" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y655" s="91">
+        <v>99999999</v>
+      </c>
+      <c r="Z655" s="91">
+        <v>1627948800</v>
+      </c>
+      <c r="AA655" s="91">
+        <v>1630339199</v>
+      </c>
+      <c r="AB655" s="91">
+        <v>69</v>
+      </c>
+      <c r="AI655" s="91">
+        <v>1</v>
+      </c>
+      <c r="AJ655" s="91">
+        <v>1</v>
+      </c>
+      <c r="AM655" s="91">
+        <v>1</v>
+      </c>
+      <c r="AN655" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656" spans="1:40" s="91" customFormat="1">
+      <c r="A656" s="91">
+        <v>655</v>
+      </c>
+      <c r="B656" s="91">
+        <v>10572</v>
+      </c>
+      <c r="F656" s="91">
+        <v>1</v>
+      </c>
+      <c r="G656" s="90" t="s">
         <v>1880</v>
       </c>
-      <c r="H655" s="95" t="s">
-        <v>1887</v>
-      </c>
-      <c r="K655" s="92" t="s">
-        <v>1606</v>
-      </c>
-      <c r="M655" s="92">
+      <c r="H656" s="97"/>
+      <c r="K656" s="91" t="s">
+        <v>1608</v>
+      </c>
+      <c r="M656" s="91">
         <v>-31</v>
       </c>
-      <c r="N655" s="92">
-        <v>0</v>
-      </c>
-      <c r="O655" s="92">
-        <v>0</v>
-      </c>
-      <c r="P655" s="92" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q655" s="92">
-        <v>99800</v>
-      </c>
-      <c r="R655" s="92" t="s">
+      <c r="N656" s="91">
+        <v>0</v>
+      </c>
+      <c r="O656" s="91">
+        <v>0</v>
+      </c>
+      <c r="P656" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q656" s="91">
+        <v>49800</v>
+      </c>
+      <c r="R656" s="91" t="s">
         <v>1607</v>
       </c>
-      <c r="S655" s="90" t="s">
-        <v>1135</v>
-      </c>
-      <c r="X655" s="92" t="s">
+      <c r="S656" s="89" t="s">
+        <v>1132</v>
+      </c>
+      <c r="X656" s="91" t="s">
         <v>478</v>
       </c>
-      <c r="Y655" s="92">
+      <c r="Y656" s="91">
         <v>99999999</v>
       </c>
-      <c r="Z655" s="92">
+      <c r="Z656" s="91">
         <v>1627948800</v>
       </c>
-      <c r="AA655" s="92">
+      <c r="AA656" s="91">
         <v>1630339199</v>
       </c>
-      <c r="AB655" s="92">
+      <c r="AB656" s="91">
         <v>69</v>
       </c>
-      <c r="AI655" s="92">
-        <v>1</v>
-      </c>
-      <c r="AJ655" s="92">
-        <v>1</v>
-      </c>
-      <c r="AM655" s="92">
-        <v>1</v>
-      </c>
-      <c r="AN655" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="656" spans="1:40" s="92" customFormat="1">
-      <c r="A656" s="92">
-        <v>655</v>
-      </c>
-      <c r="B656" s="92">
-        <v>10572</v>
-      </c>
-      <c r="F656" s="92">
-        <v>1</v>
-      </c>
-      <c r="G656" s="91" t="s">
+      <c r="AI656" s="91">
+        <v>1</v>
+      </c>
+      <c r="AJ656" s="91">
+        <v>1</v>
+      </c>
+      <c r="AM656" s="91">
+        <v>1</v>
+      </c>
+      <c r="AN656" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="1:40" s="91" customFormat="1">
+      <c r="A657" s="91">
+        <v>656</v>
+      </c>
+      <c r="B657" s="91">
+        <v>10573</v>
+      </c>
+      <c r="F657" s="91">
+        <v>1</v>
+      </c>
+      <c r="G657" s="90" t="s">
         <v>1881</v>
       </c>
-      <c r="H656" s="96"/>
-      <c r="K656" s="92" t="s">
-        <v>1608</v>
-      </c>
-      <c r="M656" s="92">
+      <c r="H657" s="97"/>
+      <c r="K657" s="91" t="s">
+        <v>1609</v>
+      </c>
+      <c r="M657" s="91">
         <v>-31</v>
       </c>
-      <c r="N656" s="92">
-        <v>0</v>
-      </c>
-      <c r="O656" s="92">
-        <v>0</v>
-      </c>
-      <c r="P656" s="92" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q656" s="92">
-        <v>49800</v>
-      </c>
-      <c r="R656" s="92" t="s">
-        <v>1607</v>
-      </c>
-      <c r="S656" s="90" t="s">
-        <v>1132</v>
-      </c>
-      <c r="X656" s="92" t="s">
+      <c r="N657" s="91">
+        <v>0</v>
+      </c>
+      <c r="O657" s="91">
+        <v>0</v>
+      </c>
+      <c r="P657" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q657" s="91">
+        <v>29800</v>
+      </c>
+      <c r="R657" s="91" t="s">
+        <v>1610</v>
+      </c>
+      <c r="S657" s="89" t="s">
+        <v>1128</v>
+      </c>
+      <c r="X657" s="91" t="s">
         <v>478</v>
       </c>
-      <c r="Y656" s="92">
+      <c r="Y657" s="91">
         <v>99999999</v>
       </c>
-      <c r="Z656" s="92">
+      <c r="Z657" s="91">
         <v>1627948800</v>
       </c>
-      <c r="AA656" s="92">
+      <c r="AA657" s="91">
         <v>1630339199</v>
       </c>
-      <c r="AB656" s="92">
+      <c r="AB657" s="91">
         <v>69</v>
       </c>
-      <c r="AI656" s="92">
-        <v>1</v>
-      </c>
-      <c r="AJ656" s="92">
-        <v>1</v>
-      </c>
-      <c r="AM656" s="92">
-        <v>1</v>
-      </c>
-      <c r="AN656" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="657" spans="1:40" s="92" customFormat="1">
-      <c r="A657" s="92">
-        <v>656</v>
-      </c>
-      <c r="B657" s="92">
-        <v>10573</v>
-      </c>
-      <c r="F657" s="92">
-        <v>1</v>
-      </c>
-      <c r="G657" s="91" t="s">
+      <c r="AI657" s="91">
+        <v>1</v>
+      </c>
+      <c r="AJ657" s="91">
+        <v>1</v>
+      </c>
+      <c r="AM657" s="91">
+        <v>1</v>
+      </c>
+      <c r="AN657" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" spans="1:40" s="91" customFormat="1">
+      <c r="A658" s="91">
+        <v>657</v>
+      </c>
+      <c r="B658" s="91">
+        <v>10574</v>
+      </c>
+      <c r="F658" s="91">
+        <v>1</v>
+      </c>
+      <c r="G658" s="90" t="s">
         <v>1882</v>
       </c>
-      <c r="H657" s="96"/>
-      <c r="K657" s="92" t="s">
-        <v>1609</v>
-      </c>
-      <c r="M657" s="92">
+      <c r="H658" s="97"/>
+      <c r="K658" s="91" t="s">
+        <v>1611</v>
+      </c>
+      <c r="M658" s="91">
         <v>-31</v>
       </c>
-      <c r="N657" s="92">
-        <v>0</v>
-      </c>
-      <c r="O657" s="92">
-        <v>0</v>
-      </c>
-      <c r="P657" s="92" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q657" s="92">
-        <v>29800</v>
-      </c>
-      <c r="R657" s="92" t="s">
+      <c r="N658" s="91">
+        <v>0</v>
+      </c>
+      <c r="O658" s="91">
+        <v>0</v>
+      </c>
+      <c r="P658" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q658" s="91">
+        <v>19800</v>
+      </c>
+      <c r="R658" s="91" t="s">
         <v>1610</v>
       </c>
-      <c r="S657" s="90" t="s">
-        <v>1128</v>
-      </c>
-      <c r="X657" s="92" t="s">
+      <c r="S658" s="89" t="s">
+        <v>1125</v>
+      </c>
+      <c r="X658" s="91" t="s">
         <v>478</v>
       </c>
-      <c r="Y657" s="92">
+      <c r="Y658" s="91">
         <v>99999999</v>
       </c>
-      <c r="Z657" s="92">
+      <c r="Z658" s="91">
         <v>1627948800</v>
       </c>
-      <c r="AA657" s="92">
+      <c r="AA658" s="91">
         <v>1630339199</v>
       </c>
-      <c r="AB657" s="92">
+      <c r="AB658" s="91">
         <v>69</v>
       </c>
-      <c r="AI657" s="92">
-        <v>1</v>
-      </c>
-      <c r="AJ657" s="92">
-        <v>1</v>
-      </c>
-      <c r="AM657" s="92">
-        <v>1</v>
-      </c>
-      <c r="AN657" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="658" spans="1:40" s="92" customFormat="1">
-      <c r="A658" s="92">
-        <v>657</v>
-      </c>
-      <c r="B658" s="92">
-        <v>10574</v>
-      </c>
-      <c r="F658" s="92">
-        <v>1</v>
-      </c>
-      <c r="G658" s="91" t="s">
+      <c r="AI658" s="91">
+        <v>1</v>
+      </c>
+      <c r="AJ658" s="91">
+        <v>1</v>
+      </c>
+      <c r="AM658" s="91">
+        <v>1</v>
+      </c>
+      <c r="AN658" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:40" s="91" customFormat="1">
+      <c r="A659" s="91">
+        <v>658</v>
+      </c>
+      <c r="B659" s="91">
+        <v>10575</v>
+      </c>
+      <c r="F659" s="91">
+        <v>1</v>
+      </c>
+      <c r="G659" s="90" t="s">
         <v>1883</v>
       </c>
-      <c r="H658" s="96"/>
-      <c r="K658" s="92" t="s">
-        <v>1611</v>
-      </c>
-      <c r="M658" s="92">
+      <c r="H659" s="97"/>
+      <c r="K659" s="91" t="s">
+        <v>1612</v>
+      </c>
+      <c r="M659" s="91">
         <v>-31</v>
       </c>
-      <c r="N658" s="92">
-        <v>0</v>
-      </c>
-      <c r="O658" s="92">
-        <v>0</v>
-      </c>
-      <c r="P658" s="92" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q658" s="92">
-        <v>19800</v>
-      </c>
-      <c r="R658" s="92" t="s">
+      <c r="N659" s="91">
+        <v>0</v>
+      </c>
+      <c r="O659" s="91">
+        <v>0</v>
+      </c>
+      <c r="P659" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q659" s="91">
+        <v>9800</v>
+      </c>
+      <c r="R659" s="91" t="s">
         <v>1610</v>
       </c>
-      <c r="S658" s="90" t="s">
-        <v>1125</v>
-      </c>
-      <c r="X658" s="92" t="s">
+      <c r="S659" s="89" t="s">
+        <v>1122</v>
+      </c>
+      <c r="X659" s="91" t="s">
         <v>478</v>
       </c>
-      <c r="Y658" s="92">
+      <c r="Y659" s="91">
         <v>99999999</v>
       </c>
-      <c r="Z658" s="92">
+      <c r="Z659" s="91">
         <v>1627948800</v>
       </c>
-      <c r="AA658" s="92">
+      <c r="AA659" s="91">
         <v>1630339199</v>
       </c>
-      <c r="AB658" s="92">
+      <c r="AB659" s="91">
         <v>69</v>
       </c>
-      <c r="AI658" s="92">
-        <v>1</v>
-      </c>
-      <c r="AJ658" s="92">
-        <v>1</v>
-      </c>
-      <c r="AM658" s="92">
-        <v>1</v>
-      </c>
-      <c r="AN658" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="659" spans="1:40" s="92" customFormat="1">
-      <c r="A659" s="92">
-        <v>658</v>
-      </c>
-      <c r="B659" s="92">
-        <v>10575</v>
-      </c>
-      <c r="F659" s="92">
-        <v>1</v>
-      </c>
-      <c r="G659" s="91" t="s">
+      <c r="AI659" s="91">
+        <v>1</v>
+      </c>
+      <c r="AJ659" s="91">
+        <v>1</v>
+      </c>
+      <c r="AM659" s="91">
+        <v>1</v>
+      </c>
+      <c r="AN659" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:40" s="91" customFormat="1">
+      <c r="A660" s="91">
+        <v>659</v>
+      </c>
+      <c r="B660" s="91">
+        <v>10576</v>
+      </c>
+      <c r="F660" s="91">
+        <v>1</v>
+      </c>
+      <c r="G660" s="90" t="s">
         <v>1884</v>
       </c>
-      <c r="H659" s="96"/>
-      <c r="K659" s="92" t="s">
-        <v>1612</v>
-      </c>
-      <c r="M659" s="92">
+      <c r="H660" s="97"/>
+      <c r="K660" s="91" t="s">
+        <v>1613</v>
+      </c>
+      <c r="M660" s="91">
         <v>-31</v>
       </c>
-      <c r="N659" s="92">
-        <v>0</v>
-      </c>
-      <c r="O659" s="92">
-        <v>0</v>
-      </c>
-      <c r="P659" s="92" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q659" s="92">
-        <v>9800</v>
-      </c>
-      <c r="R659" s="92" t="s">
-        <v>1610</v>
-      </c>
-      <c r="S659" s="90" t="s">
-        <v>1122</v>
-      </c>
-      <c r="X659" s="92" t="s">
+      <c r="N660" s="91">
+        <v>0</v>
+      </c>
+      <c r="O660" s="91">
+        <v>0</v>
+      </c>
+      <c r="P660" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q660" s="91">
+        <v>4800</v>
+      </c>
+      <c r="R660" s="91" t="s">
+        <v>1614</v>
+      </c>
+      <c r="S660" s="89" t="s">
+        <v>1118</v>
+      </c>
+      <c r="X660" s="91" t="s">
         <v>478</v>
       </c>
-      <c r="Y659" s="92">
+      <c r="Y660" s="91">
         <v>99999999</v>
       </c>
-      <c r="Z659" s="92">
+      <c r="Z660" s="91">
         <v>1627948800</v>
       </c>
-      <c r="AA659" s="92">
+      <c r="AA660" s="91">
         <v>1630339199</v>
       </c>
-      <c r="AB659" s="92">
+      <c r="AB660" s="91">
         <v>69</v>
       </c>
-      <c r="AI659" s="92">
-        <v>1</v>
-      </c>
-      <c r="AJ659" s="92">
-        <v>1</v>
-      </c>
-      <c r="AM659" s="92">
-        <v>1</v>
-      </c>
-      <c r="AN659" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="660" spans="1:40" s="92" customFormat="1">
-      <c r="A660" s="92">
-        <v>659</v>
-      </c>
-      <c r="B660" s="92">
-        <v>10576</v>
-      </c>
-      <c r="F660" s="92">
-        <v>1</v>
-      </c>
-      <c r="G660" s="91" t="s">
+      <c r="AI660" s="91">
+        <v>1</v>
+      </c>
+      <c r="AJ660" s="91">
+        <v>1</v>
+      </c>
+      <c r="AM660" s="91">
+        <v>1</v>
+      </c>
+      <c r="AN660" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:40" s="91" customFormat="1">
+      <c r="A661" s="91">
+        <v>660</v>
+      </c>
+      <c r="B661" s="91">
+        <v>10577</v>
+      </c>
+      <c r="F661" s="91">
+        <v>1</v>
+      </c>
+      <c r="G661" s="90" t="s">
         <v>1885</v>
       </c>
-      <c r="H660" s="96"/>
-      <c r="K660" s="92" t="s">
-        <v>1613</v>
-      </c>
-      <c r="M660" s="92">
+      <c r="H661" s="97"/>
+      <c r="K661" s="91" t="s">
+        <v>1615</v>
+      </c>
+      <c r="M661" s="91">
         <v>-31</v>
       </c>
-      <c r="N660" s="92">
-        <v>0</v>
-      </c>
-      <c r="O660" s="92">
-        <v>0</v>
-      </c>
-      <c r="P660" s="92" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q660" s="92">
-        <v>4800</v>
-      </c>
-      <c r="R660" s="92" t="s">
+      <c r="N661" s="91">
+        <v>0</v>
+      </c>
+      <c r="O661" s="91">
+        <v>0</v>
+      </c>
+      <c r="P661" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q661" s="91">
+        <v>1800</v>
+      </c>
+      <c r="R661" s="91" t="s">
         <v>1614</v>
       </c>
-      <c r="S660" s="90" t="s">
-        <v>1118</v>
-      </c>
-      <c r="X660" s="92" t="s">
+      <c r="S661" s="89" t="s">
+        <v>1115</v>
+      </c>
+      <c r="X661" s="91" t="s">
         <v>478</v>
       </c>
-      <c r="Y660" s="92">
+      <c r="Y661" s="91">
         <v>99999999</v>
       </c>
-      <c r="Z660" s="92">
+      <c r="Z661" s="91">
         <v>1627948800</v>
       </c>
-      <c r="AA660" s="92">
+      <c r="AA661" s="91">
         <v>1630339199</v>
       </c>
-      <c r="AB660" s="92">
+      <c r="AB661" s="91">
         <v>69</v>
       </c>
-      <c r="AI660" s="92">
-        <v>1</v>
-      </c>
-      <c r="AJ660" s="92">
-        <v>1</v>
-      </c>
-      <c r="AM660" s="92">
-        <v>1</v>
-      </c>
-      <c r="AN660" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="661" spans="1:40" s="92" customFormat="1">
-      <c r="A661" s="92">
-        <v>660</v>
-      </c>
-      <c r="B661" s="92">
-        <v>10577</v>
-      </c>
-      <c r="F661" s="92">
-        <v>1</v>
-      </c>
-      <c r="G661" s="91" t="s">
-        <v>1886</v>
-      </c>
-      <c r="H661" s="96"/>
-      <c r="K661" s="92" t="s">
-        <v>1615</v>
-      </c>
-      <c r="M661" s="92">
-        <v>-31</v>
-      </c>
-      <c r="N661" s="92">
-        <v>0</v>
-      </c>
-      <c r="O661" s="92">
-        <v>0</v>
-      </c>
-      <c r="P661" s="92" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q661" s="92">
-        <v>1800</v>
-      </c>
-      <c r="R661" s="92" t="s">
-        <v>1614</v>
-      </c>
-      <c r="S661" s="90" t="s">
-        <v>1115</v>
-      </c>
-      <c r="X661" s="92" t="s">
-        <v>478</v>
-      </c>
-      <c r="Y661" s="92">
-        <v>99999999</v>
-      </c>
-      <c r="Z661" s="92">
-        <v>1627948800</v>
-      </c>
-      <c r="AA661" s="92">
-        <v>1630339199</v>
-      </c>
-      <c r="AB661" s="92">
-        <v>69</v>
-      </c>
-      <c r="AI661" s="92">
-        <v>1</v>
-      </c>
-      <c r="AJ661" s="92">
-        <v>1</v>
-      </c>
-      <c r="AM661" s="92">
-        <v>1</v>
-      </c>
-      <c r="AN661" s="92">
+      <c r="AI661" s="91">
+        <v>1</v>
+      </c>
+      <c r="AJ661" s="91">
+        <v>1</v>
+      </c>
+      <c r="AM661" s="91">
+        <v>1</v>
+      </c>
+      <c r="AN661" s="91">
         <v>1</v>
       </c>
     </row>
@@ -56780,1651 +56792,1651 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:40" s="93" customFormat="1">
-      <c r="A671" s="93">
+    <row r="671" spans="1:40" s="92" customFormat="1">
+      <c r="A671" s="92">
         <v>670</v>
       </c>
-      <c r="B671" s="93">
+      <c r="B671" s="92">
         <v>10587</v>
       </c>
-      <c r="F671" s="93">
-        <v>1</v>
-      </c>
-      <c r="G671" s="93" t="s">
-        <v>1890</v>
-      </c>
-      <c r="H671" s="93" t="s">
-        <v>1889</v>
-      </c>
-      <c r="J671" s="93" t="s">
+      <c r="F671" s="92">
+        <v>1</v>
+      </c>
+      <c r="G671" s="92" t="s">
+        <v>1888</v>
+      </c>
+      <c r="H671" s="92" t="s">
+        <v>1887</v>
+      </c>
+      <c r="J671" s="92" t="s">
         <v>1538</v>
       </c>
-      <c r="K671" s="93" t="s">
+      <c r="K671" s="92" t="s">
         <v>1559</v>
       </c>
-      <c r="M671" s="93">
+      <c r="M671" s="92">
         <v>-31</v>
       </c>
-      <c r="N671" s="93">
-        <v>0</v>
-      </c>
-      <c r="O671" s="93">
-        <v>0</v>
-      </c>
-      <c r="P671" s="93" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q671" s="93">
+      <c r="N671" s="92">
+        <v>0</v>
+      </c>
+      <c r="O671" s="92">
+        <v>0</v>
+      </c>
+      <c r="P671" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q671" s="92">
         <v>600</v>
       </c>
-      <c r="R671" s="93" t="s">
+      <c r="R671" s="92" t="s">
         <v>1645</v>
       </c>
-      <c r="S671" s="90" t="s">
+      <c r="S671" s="89" t="s">
         <v>1560</v>
       </c>
-      <c r="X671" s="93" t="s">
+      <c r="X671" s="92" t="s">
         <v>478</v>
       </c>
-      <c r="Y671" s="93">
+      <c r="Y671" s="92">
         <v>99999999</v>
       </c>
-      <c r="Z671" s="93">
+      <c r="Z671" s="92">
         <v>1628553600</v>
       </c>
-      <c r="AA671" s="93">
+      <c r="AA671" s="92">
         <v>1629129599</v>
       </c>
-      <c r="AB671" s="93">
+      <c r="AB671" s="92">
         <v>80</v>
       </c>
-      <c r="AI671" s="93">
-        <v>1</v>
-      </c>
-      <c r="AJ671" s="93">
-        <v>1</v>
-      </c>
-      <c r="AM671" s="93">
-        <v>1</v>
-      </c>
-      <c r="AN671" s="93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="672" spans="1:40" s="93" customFormat="1">
-      <c r="A672" s="93">
+      <c r="AI671" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ671" s="92">
+        <v>1</v>
+      </c>
+      <c r="AM671" s="92">
+        <v>1</v>
+      </c>
+      <c r="AN671" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:40" s="92" customFormat="1">
+      <c r="A672" s="92">
         <v>671</v>
       </c>
-      <c r="B672" s="93">
+      <c r="B672" s="92">
         <v>10588</v>
       </c>
-      <c r="F672" s="93">
-        <v>1</v>
-      </c>
-      <c r="G672" s="93" t="s">
-        <v>1890</v>
-      </c>
-      <c r="H672" s="93" t="s">
-        <v>1889</v>
-      </c>
-      <c r="J672" s="93" t="s">
+      <c r="F672" s="92">
+        <v>1</v>
+      </c>
+      <c r="G672" s="92" t="s">
+        <v>1888</v>
+      </c>
+      <c r="H672" s="92" t="s">
+        <v>1887</v>
+      </c>
+      <c r="J672" s="92" t="s">
         <v>1538</v>
       </c>
-      <c r="K672" s="93" t="s">
+      <c r="K672" s="92" t="s">
         <v>1561</v>
       </c>
-      <c r="M672" s="93">
+      <c r="M672" s="92">
         <v>-31</v>
       </c>
-      <c r="N672" s="93">
-        <v>0</v>
-      </c>
-      <c r="O672" s="93">
-        <v>0</v>
-      </c>
-      <c r="P672" s="93" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q672" s="93">
+      <c r="N672" s="92">
+        <v>0</v>
+      </c>
+      <c r="O672" s="92">
+        <v>0</v>
+      </c>
+      <c r="P672" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q672" s="92">
         <v>1000</v>
       </c>
-      <c r="R672" s="93" t="s">
+      <c r="R672" s="92" t="s">
         <v>1645</v>
       </c>
-      <c r="S672" s="90" t="s">
+      <c r="S672" s="89" t="s">
         <v>1562</v>
       </c>
-      <c r="X672" s="93" t="s">
+      <c r="X672" s="92" t="s">
         <v>478</v>
       </c>
-      <c r="Y672" s="93">
+      <c r="Y672" s="92">
         <v>99999999</v>
       </c>
-      <c r="Z672" s="93">
+      <c r="Z672" s="92">
         <v>1628553600</v>
       </c>
-      <c r="AA672" s="93">
+      <c r="AA672" s="92">
         <v>1629129599</v>
       </c>
-      <c r="AB672" s="93">
+      <c r="AB672" s="92">
         <v>80</v>
       </c>
-      <c r="AI672" s="93">
-        <v>1</v>
-      </c>
-      <c r="AJ672" s="93">
-        <v>1</v>
-      </c>
-      <c r="AM672" s="93">
-        <v>1</v>
-      </c>
-      <c r="AN672" s="93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="673" spans="1:40" s="93" customFormat="1">
-      <c r="A673" s="93">
+      <c r="AI672" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ672" s="92">
+        <v>1</v>
+      </c>
+      <c r="AM672" s="92">
+        <v>1</v>
+      </c>
+      <c r="AN672" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:40" s="92" customFormat="1">
+      <c r="A673" s="92">
         <v>672</v>
       </c>
-      <c r="B673" s="93">
+      <c r="B673" s="92">
         <v>10589</v>
       </c>
-      <c r="F673" s="93">
-        <v>1</v>
-      </c>
-      <c r="G673" s="93" t="s">
-        <v>1890</v>
-      </c>
-      <c r="H673" s="93" t="s">
-        <v>1889</v>
-      </c>
-      <c r="J673" s="93" t="s">
+      <c r="F673" s="92">
+        <v>1</v>
+      </c>
+      <c r="G673" s="92" t="s">
+        <v>1888</v>
+      </c>
+      <c r="H673" s="92" t="s">
+        <v>1887</v>
+      </c>
+      <c r="J673" s="92" t="s">
         <v>1538</v>
       </c>
-      <c r="K673" s="93" t="s">
+      <c r="K673" s="92" t="s">
         <v>1563</v>
       </c>
-      <c r="M673" s="93">
+      <c r="M673" s="92">
         <v>-31</v>
       </c>
-      <c r="N673" s="93">
-        <v>0</v>
-      </c>
-      <c r="O673" s="93">
-        <v>0</v>
-      </c>
-      <c r="P673" s="93" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q673" s="93">
+      <c r="N673" s="92">
+        <v>0</v>
+      </c>
+      <c r="O673" s="92">
+        <v>0</v>
+      </c>
+      <c r="P673" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q673" s="92">
         <v>1800</v>
       </c>
-      <c r="R673" s="93" t="s">
+      <c r="R673" s="92" t="s">
         <v>1645</v>
       </c>
-      <c r="S673" s="90" t="s">
+      <c r="S673" s="89" t="s">
         <v>1564</v>
       </c>
-      <c r="X673" s="93" t="s">
+      <c r="X673" s="92" t="s">
         <v>478</v>
       </c>
-      <c r="Y673" s="93">
+      <c r="Y673" s="92">
         <v>99999999</v>
       </c>
-      <c r="Z673" s="93">
+      <c r="Z673" s="92">
         <v>1628553600</v>
       </c>
-      <c r="AA673" s="93">
+      <c r="AA673" s="92">
         <v>1629129599</v>
       </c>
-      <c r="AB673" s="93">
+      <c r="AB673" s="92">
         <v>80</v>
       </c>
-      <c r="AI673" s="93">
-        <v>1</v>
-      </c>
-      <c r="AJ673" s="93">
-        <v>1</v>
-      </c>
-      <c r="AM673" s="93">
-        <v>1</v>
-      </c>
-      <c r="AN673" s="93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="674" spans="1:40" s="93" customFormat="1">
-      <c r="A674" s="93">
+      <c r="AI673" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ673" s="92">
+        <v>1</v>
+      </c>
+      <c r="AM673" s="92">
+        <v>1</v>
+      </c>
+      <c r="AN673" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:40" s="92" customFormat="1">
+      <c r="A674" s="92">
         <v>673</v>
       </c>
-      <c r="B674" s="93">
+      <c r="B674" s="92">
         <v>10590</v>
       </c>
-      <c r="F674" s="93">
-        <v>1</v>
-      </c>
-      <c r="G674" s="93" t="s">
-        <v>1890</v>
-      </c>
-      <c r="H674" s="93" t="s">
-        <v>1889</v>
-      </c>
-      <c r="J674" s="93" t="s">
+      <c r="F674" s="92">
+        <v>1</v>
+      </c>
+      <c r="G674" s="92" t="s">
+        <v>1888</v>
+      </c>
+      <c r="H674" s="92" t="s">
+        <v>1887</v>
+      </c>
+      <c r="J674" s="92" t="s">
         <v>1545</v>
       </c>
-      <c r="K674" s="93" t="s">
+      <c r="K674" s="92" t="s">
         <v>1565</v>
       </c>
-      <c r="M674" s="93">
+      <c r="M674" s="92">
         <v>-31</v>
       </c>
-      <c r="N674" s="93">
-        <v>0</v>
-      </c>
-      <c r="O674" s="93">
-        <v>0</v>
-      </c>
-      <c r="P674" s="93" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q674" s="93">
+      <c r="N674" s="92">
+        <v>0</v>
+      </c>
+      <c r="O674" s="92">
+        <v>0</v>
+      </c>
+      <c r="P674" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q674" s="92">
         <v>1800</v>
       </c>
-      <c r="R674" s="93" t="s">
+      <c r="R674" s="92" t="s">
         <v>1645</v>
       </c>
-      <c r="S674" s="90" t="s">
+      <c r="S674" s="89" t="s">
         <v>1547</v>
       </c>
-      <c r="X674" s="93" t="s">
+      <c r="X674" s="92" t="s">
         <v>478</v>
       </c>
-      <c r="Y674" s="93">
+      <c r="Y674" s="92">
         <v>99999999</v>
       </c>
-      <c r="Z674" s="93">
+      <c r="Z674" s="92">
         <v>1628553600</v>
       </c>
-      <c r="AA674" s="93">
+      <c r="AA674" s="92">
         <v>1629129599</v>
       </c>
-      <c r="AB674" s="93">
+      <c r="AB674" s="92">
         <v>81</v>
       </c>
-      <c r="AI674" s="93">
-        <v>1</v>
-      </c>
-      <c r="AJ674" s="93">
-        <v>1</v>
-      </c>
-      <c r="AM674" s="93">
-        <v>1</v>
-      </c>
-      <c r="AN674" s="93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="675" spans="1:40" s="93" customFormat="1">
-      <c r="A675" s="93">
+      <c r="AI674" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ674" s="92">
+        <v>1</v>
+      </c>
+      <c r="AM674" s="92">
+        <v>1</v>
+      </c>
+      <c r="AN674" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:40" s="92" customFormat="1">
+      <c r="A675" s="92">
         <v>674</v>
       </c>
-      <c r="B675" s="93">
+      <c r="B675" s="92">
         <v>10591</v>
       </c>
-      <c r="F675" s="93">
-        <v>1</v>
-      </c>
-      <c r="G675" s="93" t="s">
-        <v>1890</v>
-      </c>
-      <c r="H675" s="93" t="s">
-        <v>1889</v>
-      </c>
-      <c r="J675" s="93" t="s">
+      <c r="F675" s="92">
+        <v>1</v>
+      </c>
+      <c r="G675" s="92" t="s">
+        <v>1888</v>
+      </c>
+      <c r="H675" s="92" t="s">
+        <v>1887</v>
+      </c>
+      <c r="J675" s="92" t="s">
         <v>1545</v>
       </c>
-      <c r="K675" s="93" t="s">
+      <c r="K675" s="92" t="s">
         <v>1566</v>
       </c>
-      <c r="M675" s="93">
+      <c r="M675" s="92">
         <v>-31</v>
       </c>
-      <c r="N675" s="93">
-        <v>0</v>
-      </c>
-      <c r="O675" s="93">
-        <v>0</v>
-      </c>
-      <c r="P675" s="93" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q675" s="93">
+      <c r="N675" s="92">
+        <v>0</v>
+      </c>
+      <c r="O675" s="92">
+        <v>0</v>
+      </c>
+      <c r="P675" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q675" s="92">
         <v>3000</v>
       </c>
-      <c r="R675" s="93" t="s">
+      <c r="R675" s="92" t="s">
         <v>1645</v>
       </c>
-      <c r="S675" s="90" t="s">
+      <c r="S675" s="89" t="s">
         <v>1549</v>
       </c>
-      <c r="X675" s="93" t="s">
+      <c r="X675" s="92" t="s">
         <v>478</v>
       </c>
-      <c r="Y675" s="93">
+      <c r="Y675" s="92">
         <v>99999999</v>
       </c>
-      <c r="Z675" s="93">
+      <c r="Z675" s="92">
         <v>1628553600</v>
       </c>
-      <c r="AA675" s="93">
+      <c r="AA675" s="92">
         <v>1629129599</v>
       </c>
-      <c r="AB675" s="93">
+      <c r="AB675" s="92">
         <v>81</v>
       </c>
-      <c r="AI675" s="93">
-        <v>1</v>
-      </c>
-      <c r="AJ675" s="93">
-        <v>1</v>
-      </c>
-      <c r="AM675" s="93">
-        <v>1</v>
-      </c>
-      <c r="AN675" s="93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="676" spans="1:40" s="93" customFormat="1">
-      <c r="A676" s="93">
+      <c r="AI675" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ675" s="92">
+        <v>1</v>
+      </c>
+      <c r="AM675" s="92">
+        <v>1</v>
+      </c>
+      <c r="AN675" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:40" s="92" customFormat="1">
+      <c r="A676" s="92">
         <v>675</v>
       </c>
-      <c r="B676" s="93">
+      <c r="B676" s="92">
         <v>10592</v>
       </c>
-      <c r="F676" s="93">
-        <v>1</v>
-      </c>
-      <c r="G676" s="93" t="s">
-        <v>1890</v>
-      </c>
-      <c r="H676" s="93" t="s">
-        <v>1889</v>
-      </c>
-      <c r="J676" s="93" t="s">
+      <c r="F676" s="92">
+        <v>1</v>
+      </c>
+      <c r="G676" s="92" t="s">
+        <v>1888</v>
+      </c>
+      <c r="H676" s="92" t="s">
+        <v>1887</v>
+      </c>
+      <c r="J676" s="92" t="s">
         <v>1545</v>
       </c>
-      <c r="K676" s="93" t="s">
+      <c r="K676" s="92" t="s">
         <v>1567</v>
       </c>
-      <c r="M676" s="93">
+      <c r="M676" s="92">
         <v>-31</v>
       </c>
-      <c r="N676" s="93">
-        <v>0</v>
-      </c>
-      <c r="O676" s="93">
-        <v>0</v>
-      </c>
-      <c r="P676" s="93" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q676" s="93">
+      <c r="N676" s="92">
+        <v>0</v>
+      </c>
+      <c r="O676" s="92">
+        <v>0</v>
+      </c>
+      <c r="P676" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q676" s="92">
         <v>4800</v>
       </c>
-      <c r="R676" s="93" t="s">
+      <c r="R676" s="92" t="s">
         <v>1645</v>
       </c>
-      <c r="S676" s="90" t="s">
+      <c r="S676" s="89" t="s">
         <v>1551</v>
       </c>
-      <c r="X676" s="93" t="s">
+      <c r="X676" s="92" t="s">
         <v>478</v>
       </c>
-      <c r="Y676" s="93">
+      <c r="Y676" s="92">
         <v>99999999</v>
       </c>
-      <c r="Z676" s="93">
+      <c r="Z676" s="92">
         <v>1628553600</v>
       </c>
-      <c r="AA676" s="93">
+      <c r="AA676" s="92">
         <v>1629129599</v>
       </c>
-      <c r="AB676" s="93">
+      <c r="AB676" s="92">
         <v>81</v>
       </c>
-      <c r="AI676" s="93">
-        <v>1</v>
-      </c>
-      <c r="AJ676" s="93">
-        <v>1</v>
-      </c>
-      <c r="AM676" s="93">
-        <v>1</v>
-      </c>
-      <c r="AN676" s="93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="677" spans="1:40" s="93" customFormat="1">
-      <c r="A677" s="93">
+      <c r="AI676" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ676" s="92">
+        <v>1</v>
+      </c>
+      <c r="AM676" s="92">
+        <v>1</v>
+      </c>
+      <c r="AN676" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:40" s="92" customFormat="1">
+      <c r="A677" s="92">
         <v>676</v>
       </c>
-      <c r="B677" s="93">
+      <c r="B677" s="92">
         <v>10593</v>
       </c>
-      <c r="F677" s="93">
-        <v>1</v>
-      </c>
-      <c r="G677" s="93" t="s">
-        <v>1890</v>
-      </c>
-      <c r="H677" s="93" t="s">
-        <v>1889</v>
-      </c>
-      <c r="J677" s="93" t="s">
+      <c r="F677" s="92">
+        <v>1</v>
+      </c>
+      <c r="G677" s="92" t="s">
+        <v>1888</v>
+      </c>
+      <c r="H677" s="92" t="s">
+        <v>1887</v>
+      </c>
+      <c r="J677" s="92" t="s">
         <v>1552</v>
       </c>
-      <c r="K677" s="93" t="s">
+      <c r="K677" s="92" t="s">
         <v>1567</v>
       </c>
-      <c r="M677" s="93">
+      <c r="M677" s="92">
         <v>-31</v>
       </c>
-      <c r="N677" s="93">
-        <v>0</v>
-      </c>
-      <c r="O677" s="93">
-        <v>0</v>
-      </c>
-      <c r="P677" s="93" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q677" s="93">
+      <c r="N677" s="92">
+        <v>0</v>
+      </c>
+      <c r="O677" s="92">
+        <v>0</v>
+      </c>
+      <c r="P677" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q677" s="92">
         <v>4800</v>
       </c>
-      <c r="R677" s="93" t="s">
+      <c r="R677" s="92" t="s">
         <v>1645</v>
       </c>
-      <c r="S677" s="90" t="s">
+      <c r="S677" s="89" t="s">
         <v>1551</v>
       </c>
-      <c r="X677" s="93" t="s">
+      <c r="X677" s="92" t="s">
         <v>478</v>
       </c>
-      <c r="Y677" s="93">
+      <c r="Y677" s="92">
         <v>99999999</v>
       </c>
-      <c r="Z677" s="93">
+      <c r="Z677" s="92">
         <v>1628553600</v>
       </c>
-      <c r="AA677" s="93">
+      <c r="AA677" s="92">
         <v>1629129599</v>
       </c>
-      <c r="AB677" s="93">
+      <c r="AB677" s="92">
         <v>82</v>
       </c>
-      <c r="AI677" s="93">
-        <v>1</v>
-      </c>
-      <c r="AJ677" s="93">
-        <v>1</v>
-      </c>
-      <c r="AM677" s="93">
-        <v>1</v>
-      </c>
-      <c r="AN677" s="93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="678" spans="1:40" s="93" customFormat="1">
-      <c r="A678" s="93">
+      <c r="AI677" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ677" s="92">
+        <v>1</v>
+      </c>
+      <c r="AM677" s="92">
+        <v>1</v>
+      </c>
+      <c r="AN677" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:40" s="92" customFormat="1">
+      <c r="A678" s="92">
         <v>677</v>
       </c>
-      <c r="B678" s="93">
+      <c r="B678" s="92">
         <v>10594</v>
       </c>
-      <c r="F678" s="93">
-        <v>1</v>
-      </c>
-      <c r="G678" s="93" t="s">
-        <v>1890</v>
-      </c>
-      <c r="H678" s="93" t="s">
-        <v>1889</v>
-      </c>
-      <c r="J678" s="93" t="s">
+      <c r="F678" s="92">
+        <v>1</v>
+      </c>
+      <c r="G678" s="92" t="s">
+        <v>1888</v>
+      </c>
+      <c r="H678" s="92" t="s">
+        <v>1887</v>
+      </c>
+      <c r="J678" s="92" t="s">
         <v>1552</v>
       </c>
-      <c r="K678" s="93" t="s">
+      <c r="K678" s="92" t="s">
         <v>1568</v>
       </c>
-      <c r="M678" s="93">
+      <c r="M678" s="92">
         <v>-31</v>
       </c>
-      <c r="N678" s="93">
-        <v>0</v>
-      </c>
-      <c r="O678" s="93">
-        <v>0</v>
-      </c>
-      <c r="P678" s="93" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q678" s="93">
+      <c r="N678" s="92">
+        <v>0</v>
+      </c>
+      <c r="O678" s="92">
+        <v>0</v>
+      </c>
+      <c r="P678" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q678" s="92">
         <v>9800</v>
       </c>
-      <c r="R678" s="93" t="s">
+      <c r="R678" s="92" t="s">
         <v>1645</v>
       </c>
-      <c r="S678" s="90" t="s">
+      <c r="S678" s="89" t="s">
         <v>1554</v>
       </c>
-      <c r="X678" s="93" t="s">
+      <c r="X678" s="92" t="s">
         <v>478</v>
       </c>
-      <c r="Y678" s="93">
+      <c r="Y678" s="92">
         <v>99999999</v>
       </c>
-      <c r="Z678" s="93">
+      <c r="Z678" s="92">
         <v>1628553600</v>
       </c>
-      <c r="AA678" s="93">
+      <c r="AA678" s="92">
         <v>1629129599</v>
       </c>
-      <c r="AB678" s="93">
+      <c r="AB678" s="92">
         <v>82</v>
       </c>
-      <c r="AI678" s="93">
-        <v>1</v>
-      </c>
-      <c r="AJ678" s="93">
-        <v>1</v>
-      </c>
-      <c r="AM678" s="93">
-        <v>1</v>
-      </c>
-      <c r="AN678" s="93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="679" spans="1:40" s="93" customFormat="1">
-      <c r="A679" s="93">
+      <c r="AI678" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ678" s="92">
+        <v>1</v>
+      </c>
+      <c r="AM678" s="92">
+        <v>1</v>
+      </c>
+      <c r="AN678" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:40" s="92" customFormat="1">
+      <c r="A679" s="92">
         <v>678</v>
       </c>
-      <c r="B679" s="93">
+      <c r="B679" s="92">
         <v>10595</v>
       </c>
-      <c r="F679" s="93">
-        <v>1</v>
-      </c>
-      <c r="G679" s="93" t="s">
-        <v>1890</v>
-      </c>
-      <c r="H679" s="93" t="s">
-        <v>1889</v>
-      </c>
-      <c r="J679" s="93" t="s">
+      <c r="F679" s="92">
+        <v>1</v>
+      </c>
+      <c r="G679" s="92" t="s">
+        <v>1888</v>
+      </c>
+      <c r="H679" s="92" t="s">
+        <v>1887</v>
+      </c>
+      <c r="J679" s="92" t="s">
         <v>1552</v>
       </c>
-      <c r="K679" s="93" t="s">
+      <c r="K679" s="92" t="s">
         <v>1569</v>
       </c>
-      <c r="M679" s="93">
+      <c r="M679" s="92">
         <v>-31</v>
       </c>
-      <c r="N679" s="93">
-        <v>0</v>
-      </c>
-      <c r="O679" s="93">
-        <v>0</v>
-      </c>
-      <c r="P679" s="93" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q679" s="93">
+      <c r="N679" s="92">
+        <v>0</v>
+      </c>
+      <c r="O679" s="92">
+        <v>0</v>
+      </c>
+      <c r="P679" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q679" s="92">
         <v>19800</v>
       </c>
-      <c r="R679" s="93" t="s">
+      <c r="R679" s="92" t="s">
         <v>1645</v>
       </c>
-      <c r="S679" s="90" t="s">
+      <c r="S679" s="89" t="s">
         <v>1556</v>
       </c>
-      <c r="X679" s="93" t="s">
+      <c r="X679" s="92" t="s">
         <v>478</v>
       </c>
-      <c r="Y679" s="93">
+      <c r="Y679" s="92">
         <v>99999999</v>
       </c>
-      <c r="Z679" s="93">
+      <c r="Z679" s="92">
         <v>1628553600</v>
       </c>
-      <c r="AA679" s="93">
+      <c r="AA679" s="92">
         <v>1629129599</v>
       </c>
-      <c r="AB679" s="93">
+      <c r="AB679" s="92">
         <v>82</v>
       </c>
-      <c r="AI679" s="93">
-        <v>1</v>
-      </c>
-      <c r="AJ679" s="93">
-        <v>1</v>
-      </c>
-      <c r="AM679" s="93">
-        <v>1</v>
-      </c>
-      <c r="AN679" s="93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="680" spans="1:40" s="93" customFormat="1">
-      <c r="A680" s="93">
+      <c r="AI679" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ679" s="92">
+        <v>1</v>
+      </c>
+      <c r="AM679" s="92">
+        <v>1</v>
+      </c>
+      <c r="AN679" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:40" s="92" customFormat="1">
+      <c r="A680" s="92">
         <v>679</v>
       </c>
-      <c r="B680" s="93">
+      <c r="B680" s="92">
         <v>10596</v>
       </c>
-      <c r="F680" s="93">
-        <v>1</v>
-      </c>
-      <c r="G680" s="93" t="s">
-        <v>1890</v>
-      </c>
-      <c r="H680" s="93" t="s">
-        <v>1889</v>
-      </c>
-      <c r="J680" s="93" t="s">
+      <c r="F680" s="92">
+        <v>1</v>
+      </c>
+      <c r="G680" s="92" t="s">
+        <v>1888</v>
+      </c>
+      <c r="H680" s="92" t="s">
+        <v>1887</v>
+      </c>
+      <c r="J680" s="92" t="s">
         <v>1441</v>
       </c>
-      <c r="K680" s="93" t="s">
+      <c r="K680" s="92" t="s">
         <v>1568</v>
       </c>
-      <c r="M680" s="93">
+      <c r="M680" s="92">
         <v>-31</v>
       </c>
-      <c r="N680" s="93">
-        <v>0</v>
-      </c>
-      <c r="O680" s="93">
-        <v>0</v>
-      </c>
-      <c r="P680" s="93" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q680" s="93">
+      <c r="N680" s="92">
+        <v>0</v>
+      </c>
+      <c r="O680" s="92">
+        <v>0</v>
+      </c>
+      <c r="P680" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q680" s="92">
         <v>9800</v>
       </c>
-      <c r="R680" s="93" t="s">
+      <c r="R680" s="92" t="s">
         <v>1645</v>
       </c>
-      <c r="S680" s="90" t="s">
+      <c r="S680" s="89" t="s">
         <v>1554</v>
       </c>
-      <c r="X680" s="93" t="s">
+      <c r="X680" s="92" t="s">
         <v>478</v>
       </c>
-      <c r="Y680" s="93">
+      <c r="Y680" s="92">
         <v>99999999</v>
       </c>
-      <c r="Z680" s="93">
+      <c r="Z680" s="92">
         <v>1628553600</v>
       </c>
-      <c r="AA680" s="93">
+      <c r="AA680" s="92">
         <v>1629129599</v>
       </c>
-      <c r="AB680" s="93">
+      <c r="AB680" s="92">
         <v>83</v>
       </c>
-      <c r="AI680" s="93">
-        <v>1</v>
-      </c>
-      <c r="AJ680" s="93">
-        <v>1</v>
-      </c>
-      <c r="AM680" s="93">
-        <v>1</v>
-      </c>
-      <c r="AN680" s="93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="681" spans="1:40" s="93" customFormat="1">
-      <c r="A681" s="93">
+      <c r="AI680" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ680" s="92">
+        <v>1</v>
+      </c>
+      <c r="AM680" s="92">
+        <v>1</v>
+      </c>
+      <c r="AN680" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:40" s="92" customFormat="1">
+      <c r="A681" s="92">
         <v>680</v>
       </c>
-      <c r="B681" s="93">
+      <c r="B681" s="92">
         <v>10597</v>
       </c>
-      <c r="F681" s="93">
-        <v>1</v>
-      </c>
-      <c r="G681" s="93" t="s">
-        <v>1890</v>
-      </c>
-      <c r="H681" s="93" t="s">
-        <v>1889</v>
-      </c>
-      <c r="J681" s="93" t="s">
+      <c r="F681" s="92">
+        <v>1</v>
+      </c>
+      <c r="G681" s="92" t="s">
+        <v>1888</v>
+      </c>
+      <c r="H681" s="92" t="s">
+        <v>1887</v>
+      </c>
+      <c r="J681" s="92" t="s">
         <v>1441</v>
       </c>
-      <c r="K681" s="93" t="s">
+      <c r="K681" s="92" t="s">
         <v>1569</v>
       </c>
-      <c r="M681" s="93">
+      <c r="M681" s="92">
         <v>-31</v>
       </c>
-      <c r="N681" s="93">
-        <v>0</v>
-      </c>
-      <c r="O681" s="93">
-        <v>0</v>
-      </c>
-      <c r="P681" s="93" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q681" s="93">
+      <c r="N681" s="92">
+        <v>0</v>
+      </c>
+      <c r="O681" s="92">
+        <v>0</v>
+      </c>
+      <c r="P681" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q681" s="92">
         <v>19800</v>
       </c>
-      <c r="R681" s="93" t="s">
+      <c r="R681" s="92" t="s">
         <v>1645</v>
       </c>
-      <c r="S681" s="90" t="s">
+      <c r="S681" s="89" t="s">
         <v>1556</v>
       </c>
-      <c r="X681" s="93" t="s">
+      <c r="X681" s="92" t="s">
         <v>478</v>
       </c>
-      <c r="Y681" s="93">
+      <c r="Y681" s="92">
         <v>99999999</v>
       </c>
-      <c r="Z681" s="93">
+      <c r="Z681" s="92">
         <v>1628553600</v>
       </c>
-      <c r="AA681" s="93">
+      <c r="AA681" s="92">
         <v>1629129599</v>
       </c>
-      <c r="AB681" s="93">
+      <c r="AB681" s="92">
         <v>83</v>
       </c>
-      <c r="AI681" s="93">
-        <v>1</v>
-      </c>
-      <c r="AJ681" s="93">
-        <v>1</v>
-      </c>
-      <c r="AM681" s="93">
-        <v>1</v>
-      </c>
-      <c r="AN681" s="93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="682" spans="1:40" s="93" customFormat="1">
-      <c r="A682" s="93">
+      <c r="AI681" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ681" s="92">
+        <v>1</v>
+      </c>
+      <c r="AM681" s="92">
+        <v>1</v>
+      </c>
+      <c r="AN681" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:40" s="92" customFormat="1">
+      <c r="A682" s="92">
         <v>681</v>
       </c>
-      <c r="B682" s="93">
+      <c r="B682" s="92">
         <v>10598</v>
       </c>
-      <c r="F682" s="93">
-        <v>1</v>
-      </c>
-      <c r="G682" s="93" t="s">
-        <v>1890</v>
-      </c>
-      <c r="H682" s="93" t="s">
-        <v>1889</v>
-      </c>
-      <c r="J682" s="93" t="s">
+      <c r="F682" s="92">
+        <v>1</v>
+      </c>
+      <c r="G682" s="92" t="s">
+        <v>1888</v>
+      </c>
+      <c r="H682" s="92" t="s">
+        <v>1887</v>
+      </c>
+      <c r="J682" s="92" t="s">
         <v>1441</v>
       </c>
-      <c r="K682" s="93" t="s">
+      <c r="K682" s="92" t="s">
         <v>1570</v>
       </c>
-      <c r="M682" s="93">
+      <c r="M682" s="92">
         <v>-31</v>
       </c>
-      <c r="N682" s="93">
-        <v>0</v>
-      </c>
-      <c r="O682" s="93">
-        <v>0</v>
-      </c>
-      <c r="P682" s="93" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q682" s="93">
+      <c r="N682" s="92">
+        <v>0</v>
+      </c>
+      <c r="O682" s="92">
+        <v>0</v>
+      </c>
+      <c r="P682" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q682" s="92">
         <v>49800</v>
       </c>
-      <c r="R682" s="93" t="s">
+      <c r="R682" s="92" t="s">
         <v>1645</v>
       </c>
-      <c r="S682" s="90" t="s">
+      <c r="S682" s="89" t="s">
         <v>1558</v>
       </c>
-      <c r="X682" s="93" t="s">
+      <c r="X682" s="92" t="s">
         <v>478</v>
       </c>
-      <c r="Y682" s="93">
+      <c r="Y682" s="92">
         <v>99999999</v>
       </c>
-      <c r="Z682" s="93">
+      <c r="Z682" s="92">
         <v>1628553600</v>
       </c>
-      <c r="AA682" s="93">
+      <c r="AA682" s="92">
         <v>1629129599</v>
       </c>
-      <c r="AB682" s="93">
+      <c r="AB682" s="92">
         <v>83</v>
       </c>
-      <c r="AI682" s="93">
-        <v>1</v>
-      </c>
-      <c r="AJ682" s="93">
-        <v>1</v>
-      </c>
-      <c r="AM682" s="93">
-        <v>1</v>
-      </c>
-      <c r="AN682" s="93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="683" spans="1:40" s="89" customFormat="1">
-      <c r="A683" s="89">
+      <c r="AI682" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ682" s="92">
+        <v>1</v>
+      </c>
+      <c r="AM682" s="92">
+        <v>1</v>
+      </c>
+      <c r="AN682" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" spans="1:40" s="88" customFormat="1">
+      <c r="A683" s="88">
         <v>682</v>
       </c>
-      <c r="B683" s="89">
+      <c r="B683" s="88">
         <v>10599</v>
       </c>
-      <c r="F683" s="89">
-        <v>0</v>
-      </c>
-      <c r="G683" s="89" t="s">
+      <c r="F683" s="88">
+        <v>0</v>
+      </c>
+      <c r="G683" s="88" t="s">
         <v>1646</v>
       </c>
-      <c r="H683" s="95" t="s">
+      <c r="H683" s="96" t="s">
+        <v>1877</v>
+      </c>
+      <c r="K683" s="88" t="s">
+        <v>1572</v>
+      </c>
+      <c r="M683" s="88">
+        <v>-31</v>
+      </c>
+      <c r="N683" s="88">
+        <v>0</v>
+      </c>
+      <c r="O683" s="88">
+        <v>0</v>
+      </c>
+      <c r="P683" s="88" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q683" s="88">
+        <v>49800</v>
+      </c>
+      <c r="R683" s="88" t="s">
+        <v>1647</v>
+      </c>
+      <c r="S683" s="89" t="s">
+        <v>1574</v>
+      </c>
+      <c r="X683" s="88" t="s">
+        <v>1302</v>
+      </c>
+      <c r="Y683" s="88">
+        <v>99999999</v>
+      </c>
+      <c r="Z683" s="88">
+        <v>1624924800</v>
+      </c>
+      <c r="AA683" s="88">
+        <v>1627315199</v>
+      </c>
+      <c r="AB683" s="88">
+        <v>69</v>
+      </c>
+      <c r="AI683" s="88">
+        <v>1</v>
+      </c>
+      <c r="AJ683" s="88">
+        <v>1</v>
+      </c>
+      <c r="AM683" s="88">
+        <v>1</v>
+      </c>
+      <c r="AN683" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:40" s="88" customFormat="1">
+      <c r="A684" s="88">
+        <v>683</v>
+      </c>
+      <c r="B684" s="88">
+        <v>10600</v>
+      </c>
+      <c r="F684" s="88">
+        <v>0</v>
+      </c>
+      <c r="G684" s="88" t="s">
+        <v>1646</v>
+      </c>
+      <c r="H684" s="96"/>
+      <c r="K684" s="88" t="s">
+        <v>1575</v>
+      </c>
+      <c r="M684" s="88">
+        <v>-31</v>
+      </c>
+      <c r="N684" s="88">
+        <v>0</v>
+      </c>
+      <c r="O684" s="88">
+        <v>0</v>
+      </c>
+      <c r="P684" s="88" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q684" s="88">
+        <v>19800</v>
+      </c>
+      <c r="R684" s="88" t="s">
+        <v>1647</v>
+      </c>
+      <c r="S684" s="89" t="s">
+        <v>1576</v>
+      </c>
+      <c r="X684" s="88" t="s">
+        <v>1302</v>
+      </c>
+      <c r="Y684" s="88">
+        <v>99999999</v>
+      </c>
+      <c r="Z684" s="88">
+        <v>1624924800</v>
+      </c>
+      <c r="AA684" s="88">
+        <v>1627315199</v>
+      </c>
+      <c r="AB684" s="88">
+        <v>69</v>
+      </c>
+      <c r="AI684" s="88">
+        <v>1</v>
+      </c>
+      <c r="AJ684" s="88">
+        <v>1</v>
+      </c>
+      <c r="AM684" s="88">
+        <v>1</v>
+      </c>
+      <c r="AN684" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:40" s="88" customFormat="1">
+      <c r="A685" s="88">
+        <v>684</v>
+      </c>
+      <c r="B685" s="88">
+        <v>10601</v>
+      </c>
+      <c r="F685" s="88">
+        <v>0</v>
+      </c>
+      <c r="G685" s="88" t="s">
+        <v>1646</v>
+      </c>
+      <c r="H685" s="96"/>
+      <c r="K685" s="88" t="s">
+        <v>1577</v>
+      </c>
+      <c r="M685" s="88">
+        <v>-31</v>
+      </c>
+      <c r="N685" s="88">
+        <v>0</v>
+      </c>
+      <c r="O685" s="88">
+        <v>0</v>
+      </c>
+      <c r="P685" s="88" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q685" s="88">
+        <v>9800</v>
+      </c>
+      <c r="R685" s="88" t="s">
+        <v>1647</v>
+      </c>
+      <c r="S685" s="89" t="s">
+        <v>1578</v>
+      </c>
+      <c r="X685" s="88" t="s">
+        <v>1302</v>
+      </c>
+      <c r="Y685" s="88">
+        <v>99999999</v>
+      </c>
+      <c r="Z685" s="88">
+        <v>1624924800</v>
+      </c>
+      <c r="AA685" s="88">
+        <v>1627315199</v>
+      </c>
+      <c r="AB685" s="88">
+        <v>69</v>
+      </c>
+      <c r="AI685" s="88">
+        <v>1</v>
+      </c>
+      <c r="AJ685" s="88">
+        <v>1</v>
+      </c>
+      <c r="AM685" s="88">
+        <v>1</v>
+      </c>
+      <c r="AN685" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:40" s="88" customFormat="1">
+      <c r="A686" s="88">
+        <v>685</v>
+      </c>
+      <c r="B686" s="88">
+        <v>10602</v>
+      </c>
+      <c r="F686" s="88">
+        <v>0</v>
+      </c>
+      <c r="G686" s="88" t="s">
+        <v>1646</v>
+      </c>
+      <c r="H686" s="96"/>
+      <c r="K686" s="88" t="s">
+        <v>1579</v>
+      </c>
+      <c r="M686" s="88">
+        <v>-31</v>
+      </c>
+      <c r="N686" s="88">
+        <v>0</v>
+      </c>
+      <c r="O686" s="88">
+        <v>0</v>
+      </c>
+      <c r="P686" s="88" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q686" s="88">
+        <v>4800</v>
+      </c>
+      <c r="R686" s="88" t="s">
+        <v>1647</v>
+      </c>
+      <c r="S686" s="89" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X686" s="88" t="s">
+        <v>1302</v>
+      </c>
+      <c r="Y686" s="88">
+        <v>99999999</v>
+      </c>
+      <c r="Z686" s="88">
+        <v>1624924800</v>
+      </c>
+      <c r="AA686" s="88">
+        <v>1627315199</v>
+      </c>
+      <c r="AB686" s="88">
+        <v>69</v>
+      </c>
+      <c r="AI686" s="88">
+        <v>1</v>
+      </c>
+      <c r="AJ686" s="88">
+        <v>1</v>
+      </c>
+      <c r="AM686" s="88">
+        <v>1</v>
+      </c>
+      <c r="AN686" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:40" s="88" customFormat="1">
+      <c r="A687" s="88">
+        <v>686</v>
+      </c>
+      <c r="B687" s="88">
+        <v>10603</v>
+      </c>
+      <c r="F687" s="88">
+        <v>0</v>
+      </c>
+      <c r="G687" s="88" t="s">
+        <v>1646</v>
+      </c>
+      <c r="H687" s="96"/>
+      <c r="K687" s="88" t="s">
+        <v>1581</v>
+      </c>
+      <c r="M687" s="88">
+        <v>-31</v>
+      </c>
+      <c r="N687" s="88">
+        <v>0</v>
+      </c>
+      <c r="O687" s="88">
+        <v>0</v>
+      </c>
+      <c r="P687" s="88" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q687" s="88">
+        <v>2000</v>
+      </c>
+      <c r="R687" s="88" t="s">
+        <v>1647</v>
+      </c>
+      <c r="S687" s="89" t="s">
+        <v>1582</v>
+      </c>
+      <c r="X687" s="88" t="s">
+        <v>1302</v>
+      </c>
+      <c r="Y687" s="88">
+        <v>99999999</v>
+      </c>
+      <c r="Z687" s="88">
+        <v>1624924800</v>
+      </c>
+      <c r="AA687" s="88">
+        <v>1627315199</v>
+      </c>
+      <c r="AB687" s="88">
+        <v>69</v>
+      </c>
+      <c r="AI687" s="88">
+        <v>1</v>
+      </c>
+      <c r="AJ687" s="88">
+        <v>1</v>
+      </c>
+      <c r="AM687" s="88">
+        <v>1</v>
+      </c>
+      <c r="AN687" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:40" s="88" customFormat="1">
+      <c r="A688" s="88">
+        <v>687</v>
+      </c>
+      <c r="B688" s="88">
+        <v>10604</v>
+      </c>
+      <c r="F688" s="88">
+        <v>0</v>
+      </c>
+      <c r="G688" s="88" t="s">
+        <v>1646</v>
+      </c>
+      <c r="H688" s="96"/>
+      <c r="K688" s="88" t="s">
+        <v>1583</v>
+      </c>
+      <c r="M688" s="88">
+        <v>-31</v>
+      </c>
+      <c r="N688" s="88">
+        <v>0</v>
+      </c>
+      <c r="O688" s="88">
+        <v>0</v>
+      </c>
+      <c r="P688" s="88" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q688" s="88">
+        <v>600</v>
+      </c>
+      <c r="R688" s="88" t="s">
+        <v>1647</v>
+      </c>
+      <c r="S688" s="89" t="s">
+        <v>1584</v>
+      </c>
+      <c r="X688" s="88" t="s">
+        <v>1302</v>
+      </c>
+      <c r="Y688" s="88">
+        <v>99999999</v>
+      </c>
+      <c r="Z688" s="88">
+        <v>1624924800</v>
+      </c>
+      <c r="AA688" s="88">
+        <v>1627315199</v>
+      </c>
+      <c r="AB688" s="88">
+        <v>69</v>
+      </c>
+      <c r="AI688" s="88">
+        <v>1</v>
+      </c>
+      <c r="AJ688" s="88">
+        <v>1</v>
+      </c>
+      <c r="AM688" s="88">
+        <v>1</v>
+      </c>
+      <c r="AN688" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:40" s="88" customFormat="1">
+      <c r="A689" s="88">
+        <v>688</v>
+      </c>
+      <c r="B689" s="88">
+        <v>10605</v>
+      </c>
+      <c r="F689" s="88">
+        <v>1</v>
+      </c>
+      <c r="G689" s="88" t="s">
+        <v>1648</v>
+      </c>
+      <c r="H689" s="96" t="s">
         <v>1878</v>
       </c>
-      <c r="K683" s="89" t="s">
-        <v>1572</v>
-      </c>
-      <c r="M683" s="89">
+      <c r="K689" s="88" t="s">
+        <v>1649</v>
+      </c>
+      <c r="M689" s="88">
         <v>-31</v>
       </c>
-      <c r="N683" s="89">
-        <v>0</v>
-      </c>
-      <c r="O683" s="89">
-        <v>0</v>
-      </c>
-      <c r="P683" s="89" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q683" s="89">
+      <c r="N689" s="88">
+        <v>0</v>
+      </c>
+      <c r="O689" s="88">
+        <v>0</v>
+      </c>
+      <c r="P689" s="88" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q689" s="88">
         <v>49800</v>
       </c>
-      <c r="R683" s="89" t="s">
-        <v>1647</v>
-      </c>
-      <c r="S683" s="90" t="s">
+      <c r="R689" s="88" t="s">
+        <v>1573</v>
+      </c>
+      <c r="S689" s="89" t="s">
         <v>1574</v>
       </c>
-      <c r="X683" s="89" t="s">
+      <c r="X689" s="88" t="s">
         <v>1302</v>
       </c>
-      <c r="Y683" s="89">
+      <c r="Y689" s="88">
         <v>99999999</v>
       </c>
-      <c r="Z683" s="89">
-        <v>1624924800</v>
-      </c>
-      <c r="AA683" s="89">
-        <v>1627315199</v>
-      </c>
-      <c r="AB683" s="89">
-        <v>69</v>
-      </c>
-      <c r="AI683" s="89">
-        <v>1</v>
-      </c>
-      <c r="AJ683" s="89">
-        <v>1</v>
-      </c>
-      <c r="AM683" s="89">
-        <v>1</v>
-      </c>
-      <c r="AN683" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="684" spans="1:40" s="89" customFormat="1">
-      <c r="A684" s="89">
-        <v>683</v>
-      </c>
-      <c r="B684" s="89">
-        <v>10600</v>
-      </c>
-      <c r="F684" s="89">
-        <v>0</v>
-      </c>
-      <c r="G684" s="89" t="s">
-        <v>1646</v>
-      </c>
-      <c r="H684" s="95"/>
-      <c r="K684" s="89" t="s">
-        <v>1575</v>
-      </c>
-      <c r="M684" s="89">
+      <c r="Z689" s="88">
+        <v>1627948800</v>
+      </c>
+      <c r="AA689" s="88">
+        <v>1628524799</v>
+      </c>
+      <c r="AB689" s="88">
+        <v>68</v>
+      </c>
+      <c r="AI689" s="88">
+        <v>1</v>
+      </c>
+      <c r="AJ689" s="88">
+        <v>1</v>
+      </c>
+      <c r="AM689" s="88">
+        <v>1</v>
+      </c>
+      <c r="AN689" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:40" s="88" customFormat="1">
+      <c r="A690" s="88">
+        <v>689</v>
+      </c>
+      <c r="B690" s="88">
+        <v>10606</v>
+      </c>
+      <c r="F690" s="88">
+        <v>1</v>
+      </c>
+      <c r="G690" s="88" t="s">
+        <v>1648</v>
+      </c>
+      <c r="H690" s="97"/>
+      <c r="K690" s="88" t="s">
+        <v>1650</v>
+      </c>
+      <c r="M690" s="88">
         <v>-31</v>
       </c>
-      <c r="N684" s="89">
-        <v>0</v>
-      </c>
-      <c r="O684" s="89">
-        <v>0</v>
-      </c>
-      <c r="P684" s="89" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q684" s="89">
+      <c r="N690" s="88">
+        <v>0</v>
+      </c>
+      <c r="O690" s="88">
+        <v>0</v>
+      </c>
+      <c r="P690" s="88" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q690" s="88">
         <v>19800</v>
       </c>
-      <c r="R684" s="89" t="s">
-        <v>1647</v>
-      </c>
-      <c r="S684" s="90" t="s">
+      <c r="R690" s="88" t="s">
+        <v>1573</v>
+      </c>
+      <c r="S690" s="89" t="s">
         <v>1576</v>
       </c>
-      <c r="X684" s="89" t="s">
+      <c r="X690" s="88" t="s">
         <v>1302</v>
       </c>
-      <c r="Y684" s="89">
+      <c r="Y690" s="88">
         <v>99999999</v>
       </c>
-      <c r="Z684" s="89">
-        <v>1624924800</v>
-      </c>
-      <c r="AA684" s="89">
-        <v>1627315199</v>
-      </c>
-      <c r="AB684" s="89">
-        <v>69</v>
-      </c>
-      <c r="AI684" s="89">
-        <v>1</v>
-      </c>
-      <c r="AJ684" s="89">
-        <v>1</v>
-      </c>
-      <c r="AM684" s="89">
-        <v>1</v>
-      </c>
-      <c r="AN684" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="685" spans="1:40" s="89" customFormat="1">
-      <c r="A685" s="89">
-        <v>684</v>
-      </c>
-      <c r="B685" s="89">
-        <v>10601</v>
-      </c>
-      <c r="F685" s="89">
-        <v>0</v>
-      </c>
-      <c r="G685" s="89" t="s">
-        <v>1646</v>
-      </c>
-      <c r="H685" s="95"/>
-      <c r="K685" s="89" t="s">
-        <v>1577</v>
-      </c>
-      <c r="M685" s="89">
+      <c r="Z690" s="88">
+        <v>1627948800</v>
+      </c>
+      <c r="AA690" s="88">
+        <v>1628524799</v>
+      </c>
+      <c r="AB690" s="88">
+        <v>68</v>
+      </c>
+      <c r="AI690" s="88">
+        <v>1</v>
+      </c>
+      <c r="AJ690" s="88">
+        <v>1</v>
+      </c>
+      <c r="AM690" s="88">
+        <v>1</v>
+      </c>
+      <c r="AN690" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:40" s="88" customFormat="1">
+      <c r="A691" s="88">
+        <v>690</v>
+      </c>
+      <c r="B691" s="88">
+        <v>10607</v>
+      </c>
+      <c r="F691" s="88">
+        <v>1</v>
+      </c>
+      <c r="G691" s="88" t="s">
+        <v>1648</v>
+      </c>
+      <c r="H691" s="97"/>
+      <c r="K691" s="88" t="s">
+        <v>1651</v>
+      </c>
+      <c r="M691" s="88">
         <v>-31</v>
       </c>
-      <c r="N685" s="89">
-        <v>0</v>
-      </c>
-      <c r="O685" s="89">
-        <v>0</v>
-      </c>
-      <c r="P685" s="89" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q685" s="89">
+      <c r="N691" s="88">
+        <v>0</v>
+      </c>
+      <c r="O691" s="88">
+        <v>0</v>
+      </c>
+      <c r="P691" s="88" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q691" s="88">
         <v>9800</v>
       </c>
-      <c r="R685" s="89" t="s">
-        <v>1647</v>
-      </c>
-      <c r="S685" s="90" t="s">
+      <c r="R691" s="88" t="s">
+        <v>1573</v>
+      </c>
+      <c r="S691" s="89" t="s">
         <v>1578</v>
       </c>
-      <c r="X685" s="89" t="s">
+      <c r="X691" s="88" t="s">
         <v>1302</v>
       </c>
-      <c r="Y685" s="89">
+      <c r="Y691" s="88">
         <v>99999999</v>
       </c>
-      <c r="Z685" s="89">
-        <v>1624924800</v>
-      </c>
-      <c r="AA685" s="89">
-        <v>1627315199</v>
-      </c>
-      <c r="AB685" s="89">
-        <v>69</v>
-      </c>
-      <c r="AI685" s="89">
-        <v>1</v>
-      </c>
-      <c r="AJ685" s="89">
-        <v>1</v>
-      </c>
-      <c r="AM685" s="89">
-        <v>1</v>
-      </c>
-      <c r="AN685" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="686" spans="1:40" s="89" customFormat="1">
-      <c r="A686" s="89">
-        <v>685</v>
-      </c>
-      <c r="B686" s="89">
-        <v>10602</v>
-      </c>
-      <c r="F686" s="89">
-        <v>0</v>
-      </c>
-      <c r="G686" s="89" t="s">
-        <v>1646</v>
-      </c>
-      <c r="H686" s="95"/>
-      <c r="K686" s="89" t="s">
-        <v>1579</v>
-      </c>
-      <c r="M686" s="89">
+      <c r="Z691" s="88">
+        <v>1627948800</v>
+      </c>
+      <c r="AA691" s="88">
+        <v>1628524799</v>
+      </c>
+      <c r="AB691" s="88">
+        <v>68</v>
+      </c>
+      <c r="AI691" s="88">
+        <v>1</v>
+      </c>
+      <c r="AJ691" s="88">
+        <v>1</v>
+      </c>
+      <c r="AM691" s="88">
+        <v>1</v>
+      </c>
+      <c r="AN691" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:40" s="88" customFormat="1">
+      <c r="A692" s="88">
+        <v>691</v>
+      </c>
+      <c r="B692" s="88">
+        <v>10608</v>
+      </c>
+      <c r="F692" s="88">
+        <v>1</v>
+      </c>
+      <c r="G692" s="88" t="s">
+        <v>1648</v>
+      </c>
+      <c r="H692" s="97"/>
+      <c r="K692" s="88" t="s">
+        <v>1652</v>
+      </c>
+      <c r="M692" s="88">
         <v>-31</v>
       </c>
-      <c r="N686" s="89">
-        <v>0</v>
-      </c>
-      <c r="O686" s="89">
-        <v>0</v>
-      </c>
-      <c r="P686" s="89" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q686" s="89">
+      <c r="N692" s="88">
+        <v>0</v>
+      </c>
+      <c r="O692" s="88">
+        <v>0</v>
+      </c>
+      <c r="P692" s="88" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q692" s="88">
         <v>4800</v>
       </c>
-      <c r="R686" s="89" t="s">
-        <v>1647</v>
-      </c>
-      <c r="S686" s="90" t="s">
+      <c r="R692" s="88" t="s">
+        <v>1573</v>
+      </c>
+      <c r="S692" s="89" t="s">
         <v>1580</v>
       </c>
-      <c r="X686" s="89" t="s">
+      <c r="X692" s="88" t="s">
         <v>1302</v>
       </c>
-      <c r="Y686" s="89">
+      <c r="Y692" s="88">
         <v>99999999</v>
       </c>
-      <c r="Z686" s="89">
-        <v>1624924800</v>
-      </c>
-      <c r="AA686" s="89">
-        <v>1627315199</v>
-      </c>
-      <c r="AB686" s="89">
-        <v>69</v>
-      </c>
-      <c r="AI686" s="89">
-        <v>1</v>
-      </c>
-      <c r="AJ686" s="89">
-        <v>1</v>
-      </c>
-      <c r="AM686" s="89">
-        <v>1</v>
-      </c>
-      <c r="AN686" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="687" spans="1:40" s="89" customFormat="1">
-      <c r="A687" s="89">
-        <v>686</v>
-      </c>
-      <c r="B687" s="89">
-        <v>10603</v>
-      </c>
-      <c r="F687" s="89">
-        <v>0</v>
-      </c>
-      <c r="G687" s="89" t="s">
-        <v>1646</v>
-      </c>
-      <c r="H687" s="95"/>
-      <c r="K687" s="89" t="s">
-        <v>1581</v>
-      </c>
-      <c r="M687" s="89">
+      <c r="Z692" s="88">
+        <v>1627948800</v>
+      </c>
+      <c r="AA692" s="88">
+        <v>1628524799</v>
+      </c>
+      <c r="AB692" s="88">
+        <v>68</v>
+      </c>
+      <c r="AI692" s="88">
+        <v>1</v>
+      </c>
+      <c r="AJ692" s="88">
+        <v>1</v>
+      </c>
+      <c r="AM692" s="88">
+        <v>1</v>
+      </c>
+      <c r="AN692" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:40" s="88" customFormat="1">
+      <c r="A693" s="88">
+        <v>692</v>
+      </c>
+      <c r="B693" s="88">
+        <v>10609</v>
+      </c>
+      <c r="F693" s="88">
+        <v>1</v>
+      </c>
+      <c r="G693" s="88" t="s">
+        <v>1648</v>
+      </c>
+      <c r="H693" s="97"/>
+      <c r="K693" s="88" t="s">
+        <v>1653</v>
+      </c>
+      <c r="M693" s="88">
         <v>-31</v>
       </c>
-      <c r="N687" s="89">
-        <v>0</v>
-      </c>
-      <c r="O687" s="89">
-        <v>0</v>
-      </c>
-      <c r="P687" s="89" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q687" s="89">
+      <c r="N693" s="88">
+        <v>0</v>
+      </c>
+      <c r="O693" s="88">
+        <v>0</v>
+      </c>
+      <c r="P693" s="88" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q693" s="88">
         <v>2000</v>
       </c>
-      <c r="R687" s="89" t="s">
-        <v>1647</v>
-      </c>
-      <c r="S687" s="90" t="s">
+      <c r="R693" s="88" t="s">
+        <v>1573</v>
+      </c>
+      <c r="S693" s="89" t="s">
         <v>1582</v>
       </c>
-      <c r="X687" s="89" t="s">
+      <c r="X693" s="88" t="s">
         <v>1302</v>
       </c>
-      <c r="Y687" s="89">
+      <c r="Y693" s="88">
         <v>99999999</v>
       </c>
-      <c r="Z687" s="89">
-        <v>1624924800</v>
-      </c>
-      <c r="AA687" s="89">
-        <v>1627315199</v>
-      </c>
-      <c r="AB687" s="89">
-        <v>69</v>
-      </c>
-      <c r="AI687" s="89">
-        <v>1</v>
-      </c>
-      <c r="AJ687" s="89">
-        <v>1</v>
-      </c>
-      <c r="AM687" s="89">
-        <v>1</v>
-      </c>
-      <c r="AN687" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="688" spans="1:40" s="89" customFormat="1">
-      <c r="A688" s="89">
-        <v>687</v>
-      </c>
-      <c r="B688" s="89">
-        <v>10604</v>
-      </c>
-      <c r="F688" s="89">
-        <v>0</v>
-      </c>
-      <c r="G688" s="89" t="s">
-        <v>1646</v>
-      </c>
-      <c r="H688" s="95"/>
-      <c r="K688" s="89" t="s">
-        <v>1583</v>
-      </c>
-      <c r="M688" s="89">
+      <c r="Z693" s="88">
+        <v>1627948800</v>
+      </c>
+      <c r="AA693" s="88">
+        <v>1628524799</v>
+      </c>
+      <c r="AB693" s="88">
+        <v>68</v>
+      </c>
+      <c r="AI693" s="88">
+        <v>1</v>
+      </c>
+      <c r="AJ693" s="88">
+        <v>1</v>
+      </c>
+      <c r="AM693" s="88">
+        <v>1</v>
+      </c>
+      <c r="AN693" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:40" s="88" customFormat="1">
+      <c r="A694" s="88">
+        <v>693</v>
+      </c>
+      <c r="B694" s="88">
+        <v>10610</v>
+      </c>
+      <c r="F694" s="88">
+        <v>1</v>
+      </c>
+      <c r="G694" s="88" t="s">
+        <v>1648</v>
+      </c>
+      <c r="H694" s="97"/>
+      <c r="K694" s="88" t="s">
+        <v>1654</v>
+      </c>
+      <c r="M694" s="88">
         <v>-31</v>
       </c>
-      <c r="N688" s="89">
-        <v>0</v>
-      </c>
-      <c r="O688" s="89">
-        <v>0</v>
-      </c>
-      <c r="P688" s="89" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q688" s="89">
+      <c r="N694" s="88">
+        <v>0</v>
+      </c>
+      <c r="O694" s="88">
+        <v>0</v>
+      </c>
+      <c r="P694" s="88" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q694" s="88">
         <v>600</v>
       </c>
-      <c r="R688" s="89" t="s">
-        <v>1647</v>
-      </c>
-      <c r="S688" s="90" t="s">
+      <c r="R694" s="88" t="s">
+        <v>1573</v>
+      </c>
+      <c r="S694" s="89" t="s">
         <v>1584</v>
       </c>
-      <c r="X688" s="89" t="s">
+      <c r="X694" s="88" t="s">
         <v>1302</v>
       </c>
-      <c r="Y688" s="89">
+      <c r="Y694" s="88">
         <v>99999999</v>
       </c>
-      <c r="Z688" s="89">
-        <v>1624924800</v>
-      </c>
-      <c r="AA688" s="89">
-        <v>1627315199</v>
-      </c>
-      <c r="AB688" s="89">
-        <v>69</v>
-      </c>
-      <c r="AI688" s="89">
-        <v>1</v>
-      </c>
-      <c r="AJ688" s="89">
-        <v>1</v>
-      </c>
-      <c r="AM688" s="89">
-        <v>1</v>
-      </c>
-      <c r="AN688" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="689" spans="1:40" s="89" customFormat="1">
-      <c r="A689" s="89">
-        <v>688</v>
-      </c>
-      <c r="B689" s="89">
-        <v>10605</v>
-      </c>
-      <c r="F689" s="89">
-        <v>1</v>
-      </c>
-      <c r="G689" s="89" t="s">
-        <v>1648</v>
-      </c>
-      <c r="H689" s="95" t="s">
-        <v>1879</v>
-      </c>
-      <c r="K689" s="89" t="s">
-        <v>1649</v>
-      </c>
-      <c r="M689" s="89">
-        <v>-31</v>
-      </c>
-      <c r="N689" s="89">
-        <v>0</v>
-      </c>
-      <c r="O689" s="89">
-        <v>0</v>
-      </c>
-      <c r="P689" s="89" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q689" s="89">
-        <v>49800</v>
-      </c>
-      <c r="R689" s="89" t="s">
-        <v>1573</v>
-      </c>
-      <c r="S689" s="90" t="s">
-        <v>1574</v>
-      </c>
-      <c r="X689" s="89" t="s">
-        <v>1302</v>
-      </c>
-      <c r="Y689" s="89">
-        <v>99999999</v>
-      </c>
-      <c r="Z689" s="89">
+      <c r="Z694" s="88">
         <v>1627948800</v>
       </c>
-      <c r="AA689" s="89">
+      <c r="AA694" s="88">
         <v>1628524799</v>
       </c>
-      <c r="AB689" s="89">
+      <c r="AB694" s="88">
         <v>68</v>
       </c>
-      <c r="AI689" s="89">
-        <v>1</v>
-      </c>
-      <c r="AJ689" s="89">
-        <v>1</v>
-      </c>
-      <c r="AM689" s="89">
-        <v>1</v>
-      </c>
-      <c r="AN689" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="690" spans="1:40" s="89" customFormat="1">
-      <c r="A690" s="89">
-        <v>689</v>
-      </c>
-      <c r="B690" s="89">
-        <v>10606</v>
-      </c>
-      <c r="F690" s="89">
-        <v>1</v>
-      </c>
-      <c r="G690" s="89" t="s">
-        <v>1648</v>
-      </c>
-      <c r="H690" s="96"/>
-      <c r="K690" s="89" t="s">
-        <v>1650</v>
-      </c>
-      <c r="M690" s="89">
-        <v>-31</v>
-      </c>
-      <c r="N690" s="89">
-        <v>0</v>
-      </c>
-      <c r="O690" s="89">
-        <v>0</v>
-      </c>
-      <c r="P690" s="89" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q690" s="89">
-        <v>19800</v>
-      </c>
-      <c r="R690" s="89" t="s">
-        <v>1573</v>
-      </c>
-      <c r="S690" s="90" t="s">
-        <v>1576</v>
-      </c>
-      <c r="X690" s="89" t="s">
-        <v>1302</v>
-      </c>
-      <c r="Y690" s="89">
-        <v>99999999</v>
-      </c>
-      <c r="Z690" s="89">
-        <v>1627948800</v>
-      </c>
-      <c r="AA690" s="89">
-        <v>1628524799</v>
-      </c>
-      <c r="AB690" s="89">
-        <v>68</v>
-      </c>
-      <c r="AI690" s="89">
-        <v>1</v>
-      </c>
-      <c r="AJ690" s="89">
-        <v>1</v>
-      </c>
-      <c r="AM690" s="89">
-        <v>1</v>
-      </c>
-      <c r="AN690" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="691" spans="1:40" s="89" customFormat="1">
-      <c r="A691" s="89">
-        <v>690</v>
-      </c>
-      <c r="B691" s="89">
-        <v>10607</v>
-      </c>
-      <c r="F691" s="89">
-        <v>1</v>
-      </c>
-      <c r="G691" s="89" t="s">
-        <v>1648</v>
-      </c>
-      <c r="H691" s="96"/>
-      <c r="K691" s="89" t="s">
-        <v>1651</v>
-      </c>
-      <c r="M691" s="89">
-        <v>-31</v>
-      </c>
-      <c r="N691" s="89">
-        <v>0</v>
-      </c>
-      <c r="O691" s="89">
-        <v>0</v>
-      </c>
-      <c r="P691" s="89" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q691" s="89">
-        <v>9800</v>
-      </c>
-      <c r="R691" s="89" t="s">
-        <v>1573</v>
-      </c>
-      <c r="S691" s="90" t="s">
-        <v>1578</v>
-      </c>
-      <c r="X691" s="89" t="s">
-        <v>1302</v>
-      </c>
-      <c r="Y691" s="89">
-        <v>99999999</v>
-      </c>
-      <c r="Z691" s="89">
-        <v>1627948800</v>
-      </c>
-      <c r="AA691" s="89">
-        <v>1628524799</v>
-      </c>
-      <c r="AB691" s="89">
-        <v>68</v>
-      </c>
-      <c r="AI691" s="89">
-        <v>1</v>
-      </c>
-      <c r="AJ691" s="89">
-        <v>1</v>
-      </c>
-      <c r="AM691" s="89">
-        <v>1</v>
-      </c>
-      <c r="AN691" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="692" spans="1:40" s="89" customFormat="1">
-      <c r="A692" s="89">
-        <v>691</v>
-      </c>
-      <c r="B692" s="89">
-        <v>10608</v>
-      </c>
-      <c r="F692" s="89">
-        <v>1</v>
-      </c>
-      <c r="G692" s="89" t="s">
-        <v>1648</v>
-      </c>
-      <c r="H692" s="96"/>
-      <c r="K692" s="89" t="s">
-        <v>1652</v>
-      </c>
-      <c r="M692" s="89">
-        <v>-31</v>
-      </c>
-      <c r="N692" s="89">
-        <v>0</v>
-      </c>
-      <c r="O692" s="89">
-        <v>0</v>
-      </c>
-      <c r="P692" s="89" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q692" s="89">
-        <v>4800</v>
-      </c>
-      <c r="R692" s="89" t="s">
-        <v>1573</v>
-      </c>
-      <c r="S692" s="90" t="s">
-        <v>1580</v>
-      </c>
-      <c r="X692" s="89" t="s">
-        <v>1302</v>
-      </c>
-      <c r="Y692" s="89">
-        <v>99999999</v>
-      </c>
-      <c r="Z692" s="89">
-        <v>1627948800</v>
-      </c>
-      <c r="AA692" s="89">
-        <v>1628524799</v>
-      </c>
-      <c r="AB692" s="89">
-        <v>68</v>
-      </c>
-      <c r="AI692" s="89">
-        <v>1</v>
-      </c>
-      <c r="AJ692" s="89">
-        <v>1</v>
-      </c>
-      <c r="AM692" s="89">
-        <v>1</v>
-      </c>
-      <c r="AN692" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="693" spans="1:40" s="89" customFormat="1">
-      <c r="A693" s="89">
-        <v>692</v>
-      </c>
-      <c r="B693" s="89">
-        <v>10609</v>
-      </c>
-      <c r="F693" s="89">
-        <v>1</v>
-      </c>
-      <c r="G693" s="89" t="s">
-        <v>1648</v>
-      </c>
-      <c r="H693" s="96"/>
-      <c r="K693" s="89" t="s">
-        <v>1653</v>
-      </c>
-      <c r="M693" s="89">
-        <v>-31</v>
-      </c>
-      <c r="N693" s="89">
-        <v>0</v>
-      </c>
-      <c r="O693" s="89">
-        <v>0</v>
-      </c>
-      <c r="P693" s="89" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q693" s="89">
-        <v>2000</v>
-      </c>
-      <c r="R693" s="89" t="s">
-        <v>1573</v>
-      </c>
-      <c r="S693" s="90" t="s">
-        <v>1582</v>
-      </c>
-      <c r="X693" s="89" t="s">
-        <v>1302</v>
-      </c>
-      <c r="Y693" s="89">
-        <v>99999999</v>
-      </c>
-      <c r="Z693" s="89">
-        <v>1627948800</v>
-      </c>
-      <c r="AA693" s="89">
-        <v>1628524799</v>
-      </c>
-      <c r="AB693" s="89">
-        <v>68</v>
-      </c>
-      <c r="AI693" s="89">
-        <v>1</v>
-      </c>
-      <c r="AJ693" s="89">
-        <v>1</v>
-      </c>
-      <c r="AM693" s="89">
-        <v>1</v>
-      </c>
-      <c r="AN693" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="694" spans="1:40" s="89" customFormat="1">
-      <c r="A694" s="89">
-        <v>693</v>
-      </c>
-      <c r="B694" s="89">
-        <v>10610</v>
-      </c>
-      <c r="F694" s="89">
-        <v>1</v>
-      </c>
-      <c r="G694" s="89" t="s">
-        <v>1648</v>
-      </c>
-      <c r="H694" s="96"/>
-      <c r="K694" s="89" t="s">
-        <v>1654</v>
-      </c>
-      <c r="M694" s="89">
-        <v>-31</v>
-      </c>
-      <c r="N694" s="89">
-        <v>0</v>
-      </c>
-      <c r="O694" s="89">
-        <v>0</v>
-      </c>
-      <c r="P694" s="89" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q694" s="89">
-        <v>600</v>
-      </c>
-      <c r="R694" s="89" t="s">
-        <v>1573</v>
-      </c>
-      <c r="S694" s="90" t="s">
-        <v>1584</v>
-      </c>
-      <c r="X694" s="89" t="s">
-        <v>1302</v>
-      </c>
-      <c r="Y694" s="89">
-        <v>99999999</v>
-      </c>
-      <c r="Z694" s="89">
-        <v>1627948800</v>
-      </c>
-      <c r="AA694" s="89">
-        <v>1628524799</v>
-      </c>
-      <c r="AB694" s="89">
-        <v>68</v>
-      </c>
-      <c r="AI694" s="89">
-        <v>1</v>
-      </c>
-      <c r="AJ694" s="89">
-        <v>1</v>
-      </c>
-      <c r="AM694" s="89">
-        <v>1</v>
-      </c>
-      <c r="AN694" s="89">
+      <c r="AI694" s="88">
+        <v>1</v>
+      </c>
+      <c r="AJ694" s="88">
+        <v>1</v>
+      </c>
+      <c r="AM694" s="88">
+        <v>1</v>
+      </c>
+      <c r="AN694" s="88">
         <v>1</v>
       </c>
     </row>
@@ -58439,13 +58451,13 @@
         <v>1</v>
       </c>
       <c r="G695" s="84" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="J695" s="84" t="s">
+        <v>1853</v>
+      </c>
+      <c r="K695" s="84" t="s">
         <v>1854</v>
-      </c>
-      <c r="K695" s="84" t="s">
-        <v>1855</v>
       </c>
       <c r="M695" s="33">
         <v>-31</v>
@@ -58457,19 +58469,19 @@
         <v>0</v>
       </c>
       <c r="P695" s="84" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="Q695" s="35">
         <v>600</v>
       </c>
       <c r="R695" s="84" t="s">
-        <v>1873</v>
-      </c>
-      <c r="S695" s="87" t="s">
-        <v>1870</v>
+        <v>1872</v>
+      </c>
+      <c r="S695" s="86" t="s">
+        <v>1869</v>
       </c>
       <c r="X695" s="84" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="Y695" s="35">
         <v>99999999</v>
@@ -58484,13 +58496,13 @@
         <v>85</v>
       </c>
       <c r="AC695" s="84" t="s">
+        <v>1862</v>
+      </c>
+      <c r="AD695" s="84" t="s">
         <v>1863</v>
       </c>
-      <c r="AD695" s="84" t="s">
-        <v>1864</v>
-      </c>
-      <c r="AE695" s="86" t="s">
-        <v>1867</v>
+      <c r="AE695" s="85" t="s">
+        <v>1866</v>
       </c>
       <c r="AI695" s="35">
         <v>1</v>
@@ -58516,13 +58528,13 @@
         <v>1</v>
       </c>
       <c r="G696" s="84" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="J696" s="84" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="K696" s="84" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="M696" s="33">
         <v>-31</v>
@@ -58534,19 +58546,19 @@
         <v>0</v>
       </c>
       <c r="P696" s="84" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="Q696" s="35">
         <v>1000</v>
       </c>
       <c r="R696" s="84" t="s">
-        <v>1874</v>
-      </c>
-      <c r="S696" s="87" t="s">
-        <v>1871</v>
+        <v>1873</v>
+      </c>
+      <c r="S696" s="86" t="s">
+        <v>1870</v>
       </c>
       <c r="X696" s="84" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="Y696" s="35">
         <v>99999999</v>
@@ -58561,13 +58573,13 @@
         <v>85</v>
       </c>
       <c r="AC696" s="84" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="AD696" s="84" t="s">
-        <v>1865</v>
-      </c>
-      <c r="AE696" s="86" t="s">
-        <v>1868</v>
+        <v>1864</v>
+      </c>
+      <c r="AE696" s="85" t="s">
+        <v>1867</v>
       </c>
       <c r="AI696" s="35">
         <v>1</v>
@@ -58593,13 +58605,13 @@
         <v>1</v>
       </c>
       <c r="G697" s="84" t="s">
+        <v>1852</v>
+      </c>
+      <c r="J697" s="84" t="s">
         <v>1853</v>
       </c>
-      <c r="J697" s="84" t="s">
-        <v>1854</v>
-      </c>
       <c r="K697" s="84" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="M697" s="33">
         <v>-31</v>
@@ -58611,19 +58623,19 @@
         <v>0</v>
       </c>
       <c r="P697" s="84" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="Q697" s="35">
         <v>4800</v>
       </c>
       <c r="R697" s="84" t="s">
-        <v>1875</v>
-      </c>
-      <c r="S697" s="87" t="s">
-        <v>1872</v>
+        <v>1874</v>
+      </c>
+      <c r="S697" s="86" t="s">
+        <v>1871</v>
       </c>
       <c r="X697" s="84" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="Y697" s="35">
         <v>99999999</v>
@@ -58638,13 +58650,13 @@
         <v>85</v>
       </c>
       <c r="AC697" s="84" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="AD697" s="84" t="s">
-        <v>1866</v>
-      </c>
-      <c r="AE697" s="86" t="s">
-        <v>1869</v>
+        <v>1865</v>
+      </c>
+      <c r="AE697" s="85" t="s">
+        <v>1868</v>
       </c>
       <c r="AI697" s="35">
         <v>1</v>
@@ -58659,17 +58671,479 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:40">
-      <c r="AE698" s="85"/>
+    <row r="698" spans="1:40" s="95" customFormat="1">
+      <c r="A698" s="21">
+        <v>697</v>
+      </c>
+      <c r="B698" s="35">
+        <v>10614</v>
+      </c>
+      <c r="F698" s="95">
+        <v>1</v>
+      </c>
+      <c r="G698" s="95" t="s">
+        <v>1879</v>
+      </c>
+      <c r="H698" s="96" t="s">
+        <v>1891</v>
+      </c>
+      <c r="K698" s="95" t="s">
+        <v>1606</v>
+      </c>
+      <c r="M698" s="95">
+        <v>-31</v>
+      </c>
+      <c r="N698" s="95">
+        <v>0</v>
+      </c>
+      <c r="O698" s="95" t="s">
+        <v>1892</v>
+      </c>
+      <c r="P698" s="95" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q698" s="95">
+        <v>99800</v>
+      </c>
+      <c r="R698" s="95" t="s">
+        <v>1607</v>
+      </c>
+      <c r="S698" s="89" t="s">
+        <v>1135</v>
+      </c>
+      <c r="X698" s="95" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y698" s="95">
+        <v>99999999</v>
+      </c>
+      <c r="Z698" s="95">
+        <v>1628553600</v>
+      </c>
+      <c r="AA698" s="95">
+        <v>1629129599</v>
+      </c>
+      <c r="AB698" s="95">
+        <v>68</v>
+      </c>
+      <c r="AI698" s="95">
+        <v>1</v>
+      </c>
+      <c r="AJ698" s="95">
+        <v>1</v>
+      </c>
+      <c r="AM698" s="95">
+        <v>1</v>
+      </c>
+      <c r="AN698" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:40" s="95" customFormat="1">
+      <c r="A699" s="21">
+        <v>698</v>
+      </c>
+      <c r="B699" s="35">
+        <v>10615</v>
+      </c>
+      <c r="F699" s="95">
+        <v>1</v>
+      </c>
+      <c r="G699" s="94" t="s">
+        <v>1880</v>
+      </c>
+      <c r="H699" s="97"/>
+      <c r="K699" s="95" t="s">
+        <v>1608</v>
+      </c>
+      <c r="M699" s="95">
+        <v>-31</v>
+      </c>
+      <c r="N699" s="95">
+        <v>0</v>
+      </c>
+      <c r="O699" s="95">
+        <v>0</v>
+      </c>
+      <c r="P699" s="95" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q699" s="95">
+        <v>49800</v>
+      </c>
+      <c r="R699" s="95" t="s">
+        <v>1607</v>
+      </c>
+      <c r="S699" s="89" t="s">
+        <v>1132</v>
+      </c>
+      <c r="X699" s="95" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y699" s="95">
+        <v>99999999</v>
+      </c>
+      <c r="Z699" s="95">
+        <v>1628553600</v>
+      </c>
+      <c r="AA699" s="95">
+        <v>1629129599</v>
+      </c>
+      <c r="AB699" s="95">
+        <v>68</v>
+      </c>
+      <c r="AI699" s="95">
+        <v>1</v>
+      </c>
+      <c r="AJ699" s="95">
+        <v>1</v>
+      </c>
+      <c r="AM699" s="95">
+        <v>1</v>
+      </c>
+      <c r="AN699" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:40" s="95" customFormat="1">
+      <c r="A700" s="21">
+        <v>699</v>
+      </c>
+      <c r="B700" s="35">
+        <v>10616</v>
+      </c>
+      <c r="F700" s="95">
+        <v>1</v>
+      </c>
+      <c r="G700" s="94" t="s">
+        <v>1881</v>
+      </c>
+      <c r="H700" s="97"/>
+      <c r="K700" s="95" t="s">
+        <v>1609</v>
+      </c>
+      <c r="M700" s="95">
+        <v>-31</v>
+      </c>
+      <c r="N700" s="95">
+        <v>0</v>
+      </c>
+      <c r="O700" s="95">
+        <v>0</v>
+      </c>
+      <c r="P700" s="95" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q700" s="95">
+        <v>29800</v>
+      </c>
+      <c r="R700" s="95" t="s">
+        <v>1610</v>
+      </c>
+      <c r="S700" s="89" t="s">
+        <v>1128</v>
+      </c>
+      <c r="X700" s="95" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y700" s="95">
+        <v>99999999</v>
+      </c>
+      <c r="Z700" s="95">
+        <v>1628553600</v>
+      </c>
+      <c r="AA700" s="95">
+        <v>1629129599</v>
+      </c>
+      <c r="AB700" s="95">
+        <v>68</v>
+      </c>
+      <c r="AI700" s="95">
+        <v>1</v>
+      </c>
+      <c r="AJ700" s="95">
+        <v>1</v>
+      </c>
+      <c r="AM700" s="95">
+        <v>1</v>
+      </c>
+      <c r="AN700" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:40" s="95" customFormat="1">
+      <c r="A701" s="21">
+        <v>700</v>
+      </c>
+      <c r="B701" s="35">
+        <v>10617</v>
+      </c>
+      <c r="F701" s="95">
+        <v>1</v>
+      </c>
+      <c r="G701" s="94" t="s">
+        <v>1882</v>
+      </c>
+      <c r="H701" s="97"/>
+      <c r="K701" s="95" t="s">
+        <v>1611</v>
+      </c>
+      <c r="M701" s="95">
+        <v>-31</v>
+      </c>
+      <c r="N701" s="95">
+        <v>0</v>
+      </c>
+      <c r="O701" s="95">
+        <v>0</v>
+      </c>
+      <c r="P701" s="95" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q701" s="95">
+        <v>19800</v>
+      </c>
+      <c r="R701" s="95" t="s">
+        <v>1610</v>
+      </c>
+      <c r="S701" s="89" t="s">
+        <v>1125</v>
+      </c>
+      <c r="X701" s="95" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y701" s="95">
+        <v>99999999</v>
+      </c>
+      <c r="Z701" s="95">
+        <v>1628553600</v>
+      </c>
+      <c r="AA701" s="95">
+        <v>1629129599</v>
+      </c>
+      <c r="AB701" s="95">
+        <v>68</v>
+      </c>
+      <c r="AI701" s="95">
+        <v>1</v>
+      </c>
+      <c r="AJ701" s="95">
+        <v>1</v>
+      </c>
+      <c r="AM701" s="95">
+        <v>1</v>
+      </c>
+      <c r="AN701" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:40" s="95" customFormat="1">
+      <c r="A702" s="21">
+        <v>701</v>
+      </c>
+      <c r="B702" s="35">
+        <v>10618</v>
+      </c>
+      <c r="F702" s="95">
+        <v>1</v>
+      </c>
+      <c r="G702" s="94" t="s">
+        <v>1883</v>
+      </c>
+      <c r="H702" s="97"/>
+      <c r="K702" s="95" t="s">
+        <v>1612</v>
+      </c>
+      <c r="M702" s="95">
+        <v>-31</v>
+      </c>
+      <c r="N702" s="95">
+        <v>0</v>
+      </c>
+      <c r="O702" s="95">
+        <v>0</v>
+      </c>
+      <c r="P702" s="95" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q702" s="95">
+        <v>9800</v>
+      </c>
+      <c r="R702" s="95" t="s">
+        <v>1610</v>
+      </c>
+      <c r="S702" s="89" t="s">
+        <v>1122</v>
+      </c>
+      <c r="X702" s="95" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y702" s="95">
+        <v>99999999</v>
+      </c>
+      <c r="Z702" s="95">
+        <v>1628553600</v>
+      </c>
+      <c r="AA702" s="95">
+        <v>1629129599</v>
+      </c>
+      <c r="AB702" s="95">
+        <v>68</v>
+      </c>
+      <c r="AI702" s="95">
+        <v>1</v>
+      </c>
+      <c r="AJ702" s="95">
+        <v>1</v>
+      </c>
+      <c r="AM702" s="95">
+        <v>1</v>
+      </c>
+      <c r="AN702" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:40" s="95" customFormat="1">
+      <c r="A703" s="21">
+        <v>702</v>
+      </c>
+      <c r="B703" s="35">
+        <v>10619</v>
+      </c>
+      <c r="F703" s="95">
+        <v>1</v>
+      </c>
+      <c r="G703" s="94" t="s">
+        <v>1884</v>
+      </c>
+      <c r="H703" s="97"/>
+      <c r="K703" s="95" t="s">
+        <v>1613</v>
+      </c>
+      <c r="M703" s="95">
+        <v>-31</v>
+      </c>
+      <c r="N703" s="95">
+        <v>0</v>
+      </c>
+      <c r="O703" s="95">
+        <v>0</v>
+      </c>
+      <c r="P703" s="95" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q703" s="95">
+        <v>4800</v>
+      </c>
+      <c r="R703" s="95" t="s">
+        <v>1614</v>
+      </c>
+      <c r="S703" s="89" t="s">
+        <v>1118</v>
+      </c>
+      <c r="X703" s="95" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y703" s="95">
+        <v>99999999</v>
+      </c>
+      <c r="Z703" s="95">
+        <v>1628553600</v>
+      </c>
+      <c r="AA703" s="95">
+        <v>1629129599</v>
+      </c>
+      <c r="AB703" s="95">
+        <v>68</v>
+      </c>
+      <c r="AI703" s="95">
+        <v>1</v>
+      </c>
+      <c r="AJ703" s="95">
+        <v>1</v>
+      </c>
+      <c r="AM703" s="95">
+        <v>1</v>
+      </c>
+      <c r="AN703" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:40" s="95" customFormat="1">
+      <c r="A704" s="21">
+        <v>703</v>
+      </c>
+      <c r="B704" s="35">
+        <v>10620</v>
+      </c>
+      <c r="F704" s="95">
+        <v>1</v>
+      </c>
+      <c r="G704" s="94" t="s">
+        <v>1885</v>
+      </c>
+      <c r="H704" s="97"/>
+      <c r="K704" s="95" t="s">
+        <v>1615</v>
+      </c>
+      <c r="M704" s="95">
+        <v>-31</v>
+      </c>
+      <c r="N704" s="95">
+        <v>0</v>
+      </c>
+      <c r="O704" s="95">
+        <v>0</v>
+      </c>
+      <c r="P704" s="95" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q704" s="95">
+        <v>1800</v>
+      </c>
+      <c r="R704" s="95" t="s">
+        <v>1614</v>
+      </c>
+      <c r="S704" s="89" t="s">
+        <v>1115</v>
+      </c>
+      <c r="X704" s="95" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y704" s="95">
+        <v>99999999</v>
+      </c>
+      <c r="Z704" s="95">
+        <v>1628553600</v>
+      </c>
+      <c r="AA704" s="95">
+        <v>1629129599</v>
+      </c>
+      <c r="AB704" s="95">
+        <v>68</v>
+      </c>
+      <c r="AI704" s="95">
+        <v>1</v>
+      </c>
+      <c r="AJ704" s="95">
+        <v>1</v>
+      </c>
+      <c r="AM704" s="95">
+        <v>1</v>
+      </c>
+      <c r="AN704" s="95">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A542:AO548">
     <sortCondition descending="1" ref="A542"/>
   </sortState>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="H683:H688"/>
     <mergeCell ref="H689:H694"/>
     <mergeCell ref="H655:H661"/>
+    <mergeCell ref="H698:H704"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58683,7 +59157,7 @@
   <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -59668,7 +60142,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1726</v>
+        <v>1889</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -59681,8 +60155,8 @@
       <c r="A70" s="2">
         <v>69</v>
       </c>
-      <c r="B70" s="94" t="s">
-        <v>1888</v>
+      <c r="B70" s="93" t="s">
+        <v>1886</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -59696,7 +60170,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="C71" s="2">
         <v>1</v>
@@ -59710,7 +60184,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
@@ -59724,7 +60198,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="C73" s="2">
         <v>1</v>
@@ -59738,7 +60212,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="C74" s="2">
         <v>1</v>
@@ -59752,7 +60226,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C75" s="2">
         <v>1</v>
@@ -59766,7 +60240,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="C76" s="2">
         <v>1</v>
@@ -59780,7 +60254,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="C77" s="2">
         <v>1</v>
@@ -59794,7 +60268,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="C78" s="2">
         <v>1</v>
@@ -59808,7 +60282,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="C79" s="2">
         <v>1</v>
@@ -59822,7 +60296,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="C80" s="2">
         <v>1</v>
@@ -59836,7 +60310,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -59850,7 +60324,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -59864,7 +60338,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
@@ -59878,7 +60352,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -59891,8 +60365,8 @@
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="88" t="s">
-        <v>1876</v>
+      <c r="B85" s="87" t="s">
+        <v>1875</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -59905,8 +60379,8 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="88" t="s">
-        <v>1877</v>
+      <c r="B86" s="87" t="s">
+        <v>1876</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -59959,7 +60433,7 @@
   <sheetData>
     <row r="1" spans="1:30" s="1" customFormat="1" ht="90" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -59974,19 +60448,19 @@
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>1741</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1742</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1743</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1744</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>1745</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1746</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>32</v>
@@ -60001,7 +60475,7 @@
         <v>39</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>40</v>
@@ -60046,7 +60520,7 @@
         <v>53</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="12" customFormat="1">
@@ -60066,7 +60540,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="H2" s="12">
         <v>600</v>
@@ -60096,19 +60570,19 @@
         <v>131</v>
       </c>
       <c r="R2" s="17" t="s">
+        <v>1749</v>
+      </c>
+      <c r="T2" s="17" t="s">
         <v>1750</v>
-      </c>
-      <c r="T2" s="17" t="s">
-        <v>1751</v>
       </c>
       <c r="U2" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V2" s="17" t="s">
+        <v>1751</v>
+      </c>
+      <c r="W2" s="12" t="s">
         <v>1752</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>1753</v>
       </c>
       <c r="Z2" s="12">
         <v>1</v>
@@ -60137,7 +60611,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="H3" s="12">
         <v>1500</v>
@@ -60164,22 +60638,22 @@
         <v>4</v>
       </c>
       <c r="Q3" s="17" t="s">
+        <v>1753</v>
+      </c>
+      <c r="R3" s="17" t="s">
         <v>1754</v>
       </c>
-      <c r="R3" s="17" t="s">
-        <v>1755</v>
-      </c>
       <c r="T3" s="17" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="U3" s="12" t="s">
         <v>67</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="Z3" s="12">
         <v>1</v>
@@ -60208,7 +60682,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="H4" s="12">
         <v>3000</v>
@@ -60235,22 +60709,22 @@
         <v>5</v>
       </c>
       <c r="Q4" s="17" t="s">
+        <v>1756</v>
+      </c>
+      <c r="R4" s="17" t="s">
         <v>1757</v>
       </c>
-      <c r="R4" s="17" t="s">
-        <v>1758</v>
-      </c>
       <c r="T4" s="17" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="U4" s="12" t="s">
         <v>71</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="Z4" s="12">
         <v>1</v>
@@ -60279,7 +60753,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="H5" s="12">
         <v>5000</v>
@@ -60306,22 +60780,22 @@
         <v>6</v>
       </c>
       <c r="Q5" s="17" t="s">
+        <v>1759</v>
+      </c>
+      <c r="R5" s="17" t="s">
         <v>1760</v>
       </c>
-      <c r="R5" s="17" t="s">
-        <v>1761</v>
-      </c>
       <c r="T5" s="17" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="U5" s="12" t="s">
         <v>75</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="Z5" s="12">
         <v>1</v>
@@ -60350,7 +60824,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="H6" s="12">
         <v>9800</v>
@@ -60377,22 +60851,22 @@
         <v>7</v>
       </c>
       <c r="Q6" s="17" t="s">
+        <v>1762</v>
+      </c>
+      <c r="R6" s="17" t="s">
         <v>1763</v>
       </c>
-      <c r="R6" s="17" t="s">
-        <v>1764</v>
-      </c>
       <c r="T6" s="17" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="U6" s="12" t="s">
         <v>79</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="Z6" s="12">
         <v>1</v>
@@ -60421,7 +60895,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="H7" s="12">
         <v>49800</v>
@@ -60448,22 +60922,22 @@
         <v>9</v>
       </c>
       <c r="Q7" s="17" t="s">
+        <v>1765</v>
+      </c>
+      <c r="R7" s="17" t="s">
         <v>1766</v>
       </c>
-      <c r="R7" s="17" t="s">
-        <v>1767</v>
-      </c>
       <c r="T7" s="17" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="U7" s="12" t="s">
         <v>83</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="W7" s="12" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="Z7" s="12">
         <v>1</v>
@@ -60487,7 +60961,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="H8" s="12">
         <v>100</v>
@@ -60514,22 +60988,22 @@
         <v>0</v>
       </c>
       <c r="Q8" s="17" t="s">
+        <v>1768</v>
+      </c>
+      <c r="R8" s="17" t="s">
         <v>1769</v>
       </c>
-      <c r="R8" s="17" t="s">
-        <v>1770</v>
-      </c>
       <c r="T8" s="17" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="U8" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V8" s="17" t="s">
+        <v>1751</v>
+      </c>
+      <c r="W8" s="12" t="s">
         <v>1752</v>
-      </c>
-      <c r="W8" s="12" t="s">
-        <v>1753</v>
       </c>
       <c r="Z8" s="12">
         <v>1</v>
@@ -60553,7 +61027,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="H9" s="12">
         <v>5000</v>
@@ -60580,19 +61054,19 @@
         <v>2</v>
       </c>
       <c r="Q9" s="17" t="s">
+        <v>1759</v>
+      </c>
+      <c r="R9" s="17" t="s">
         <v>1760</v>
-      </c>
-      <c r="R9" s="17" t="s">
-        <v>1761</v>
       </c>
       <c r="U9" s="12">
         <v>5000</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="W9" s="12" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="Z9" s="12">
         <v>1</v>
@@ -60601,7 +61075,7 @@
         <v>1</v>
       </c>
       <c r="AD9" s="17" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="10" spans="1:30" s="12" customFormat="1">
@@ -60619,7 +61093,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="H10" s="12">
         <v>1000</v>
@@ -60649,16 +61123,16 @@
         <v>133</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="U10" s="12">
         <v>1000</v>
       </c>
       <c r="V10" s="12" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="W10" s="12" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="Z10" s="12">
         <v>1</v>
@@ -60667,7 +61141,7 @@
         <v>1</v>
       </c>
       <c r="AD10" s="17" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="11" spans="1:30" s="12" customFormat="1">
@@ -60685,7 +61159,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="H11" s="12">
         <v>1500</v>
@@ -60712,22 +61186,22 @@
         <v>0</v>
       </c>
       <c r="Q11" s="17" t="s">
+        <v>1753</v>
+      </c>
+      <c r="R11" s="17" t="s">
         <v>1754</v>
       </c>
-      <c r="R11" s="17" t="s">
-        <v>1755</v>
-      </c>
       <c r="T11" s="17" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="U11" s="17" t="s">
         <v>67</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="W11" s="12" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="Z11" s="12">
         <v>1</v>
@@ -60756,7 +61230,7 @@
         <v>107</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="H12" s="12">
         <v>100000</v>
@@ -60783,22 +61257,22 @@
         <v>9</v>
       </c>
       <c r="Q12" s="17" t="s">
+        <v>1774</v>
+      </c>
+      <c r="R12" s="17" t="s">
         <v>1775</v>
       </c>
-      <c r="R12" s="17" t="s">
-        <v>1776</v>
-      </c>
       <c r="T12" s="17" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="U12" s="12" t="s">
         <v>87</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="W12" s="12" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="Z12" s="12">
         <v>1</v>
@@ -60827,7 +61301,7 @@
         <v>108</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="H13" s="12">
         <v>99800</v>
@@ -60854,22 +61328,22 @@
         <v>10</v>
       </c>
       <c r="Q13" s="17" t="s">
+        <v>1777</v>
+      </c>
+      <c r="R13" s="17" t="s">
         <v>1778</v>
       </c>
-      <c r="R13" s="17" t="s">
+      <c r="T13" s="17" t="s">
+        <v>1750</v>
+      </c>
+      <c r="U13" s="12" t="s">
         <v>1779</v>
       </c>
-      <c r="T13" s="17" t="s">
-        <v>1751</v>
-      </c>
-      <c r="U13" s="12" t="s">
-        <v>1780</v>
-      </c>
       <c r="V13" s="12" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="W13" s="12" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="Z13" s="12">
         <v>1</v>
@@ -60898,7 +61372,7 @@
         <v>110</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="H14" s="12">
         <v>249800</v>
@@ -60925,22 +61399,22 @@
         <v>11</v>
       </c>
       <c r="Q14" s="17" t="s">
+        <v>1780</v>
+      </c>
+      <c r="R14" s="17" t="s">
         <v>1781</v>
       </c>
-      <c r="R14" s="17" t="s">
+      <c r="T14" s="17" t="s">
         <v>1782</v>
       </c>
-      <c r="T14" s="17" t="s">
+      <c r="U14" s="12" t="s">
         <v>1783</v>
       </c>
-      <c r="U14" s="12" t="s">
+      <c r="V14" s="12" t="s">
         <v>1784</v>
       </c>
-      <c r="V14" s="12" t="s">
-        <v>1785</v>
-      </c>
       <c r="W14" s="12" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="Z14" s="12">
         <v>1</v>
@@ -60964,7 +61438,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="H15" s="12">
         <v>100</v>
@@ -60994,21 +61468,21 @@
         <v>0</v>
       </c>
       <c r="Q15" s="17" t="s">
+        <v>1768</v>
+      </c>
+      <c r="R15" s="17" t="s">
         <v>1769</v>
-      </c>
-      <c r="R15" s="17" t="s">
-        <v>1770</v>
       </c>
       <c r="T15" s="17"/>
       <c r="U15" s="12">
         <v>100</v>
       </c>
       <c r="V15" s="17" t="s">
+        <v>1751</v>
+      </c>
+      <c r="W15" s="12" t="s">
         <v>1752</v>
       </c>
-      <c r="W15" s="12" t="s">
-        <v>1753</v>
-      </c>
       <c r="Z15" s="12">
         <v>1</v>
       </c>
@@ -61016,7 +61490,7 @@
         <v>1</v>
       </c>
       <c r="AD15" s="17" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="16" spans="1:30" s="12" customFormat="1">
@@ -61039,7 +61513,7 @@
         <v>101</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="H16" s="12">
         <v>400</v>
@@ -61066,22 +61540,22 @@
         <v>3</v>
       </c>
       <c r="Q16" s="17" t="s">
+        <v>1786</v>
+      </c>
+      <c r="R16" s="17" t="s">
         <v>1787</v>
       </c>
-      <c r="R16" s="17" t="s">
-        <v>1788</v>
-      </c>
       <c r="T16" s="17" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="U16" s="12" t="s">
         <v>101</v>
       </c>
       <c r="V16" s="17" t="s">
+        <v>1751</v>
+      </c>
+      <c r="W16" s="12" t="s">
         <v>1752</v>
-      </c>
-      <c r="W16" s="12" t="s">
-        <v>1753</v>
       </c>
       <c r="Z16" s="12">
         <v>1</v>
@@ -61105,7 +61579,7 @@
         <v>102</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="H17" s="12">
         <v>2000</v>
@@ -61132,22 +61606,22 @@
         <v>4</v>
       </c>
       <c r="Q17" s="17" t="s">
+        <v>1788</v>
+      </c>
+      <c r="R17" s="17" t="s">
         <v>1789</v>
       </c>
-      <c r="R17" s="17" t="s">
-        <v>1790</v>
-      </c>
       <c r="T17" s="17" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="U17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="W17" s="12" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="Z17" s="12">
         <v>1</v>
@@ -61171,7 +61645,7 @@
         <v>103</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="H18" s="12">
         <v>6700</v>
@@ -61198,22 +61672,22 @@
         <v>5</v>
       </c>
       <c r="Q18" s="17" t="s">
+        <v>1790</v>
+      </c>
+      <c r="R18" s="17" t="s">
         <v>1791</v>
       </c>
-      <c r="R18" s="17" t="s">
-        <v>1792</v>
-      </c>
       <c r="T18" s="17" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="U18" s="12" t="s">
         <v>109</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="W18" s="12" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="Z18" s="12">
         <v>1</v>
@@ -61237,7 +61711,7 @@
         <v>104</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="H19" s="12">
         <v>13200</v>
@@ -61264,22 +61738,22 @@
         <v>6</v>
       </c>
       <c r="Q19" s="17" t="s">
+        <v>1792</v>
+      </c>
+      <c r="R19" s="17" t="s">
         <v>1793</v>
       </c>
-      <c r="R19" s="17" t="s">
-        <v>1794</v>
-      </c>
       <c r="T19" s="17" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="U19" s="12" t="s">
         <v>114</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="W19" s="12" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="Z19" s="12">
         <v>1</v>
@@ -61303,7 +61777,7 @@
         <v>105</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="H20" s="12">
         <v>20400</v>
@@ -61330,22 +61804,22 @@
         <v>7</v>
       </c>
       <c r="Q20" s="17" t="s">
+        <v>1795</v>
+      </c>
+      <c r="R20" s="17" t="s">
         <v>1796</v>
       </c>
-      <c r="R20" s="17" t="s">
-        <v>1797</v>
-      </c>
       <c r="T20" s="17" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="U20" s="12" t="s">
         <v>120</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="Z20" s="12">
         <v>1</v>
@@ -61369,7 +61843,7 @@
         <v>101</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="H21" s="13">
         <v>100</v>
@@ -61396,22 +61870,22 @@
         <v>0</v>
       </c>
       <c r="Q21" s="18" t="s">
+        <v>1768</v>
+      </c>
+      <c r="R21" s="18" t="s">
         <v>1769</v>
       </c>
-      <c r="R21" s="18" t="s">
-        <v>1770</v>
-      </c>
       <c r="T21" s="18" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="U21" s="13" t="s">
         <v>124</v>
       </c>
       <c r="V21" s="18" t="s">
+        <v>1751</v>
+      </c>
+      <c r="W21" s="13" t="s">
         <v>1752</v>
-      </c>
-      <c r="W21" s="13" t="s">
-        <v>1753</v>
       </c>
       <c r="Z21" s="13">
         <v>1</v>
@@ -61435,7 +61909,7 @@
         <v>104</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="H22" s="12">
         <v>5000</v>
@@ -61462,20 +61936,20 @@
         <v>2</v>
       </c>
       <c r="Q22" s="17" t="s">
+        <v>1759</v>
+      </c>
+      <c r="R22" s="17" t="s">
         <v>1760</v>
-      </c>
-      <c r="R22" s="17" t="s">
-        <v>1761</v>
       </c>
       <c r="T22" s="17"/>
       <c r="U22" s="12">
         <v>5000</v>
       </c>
       <c r="V22" s="17" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="Z22" s="12">
         <v>1</v>
@@ -61499,7 +61973,7 @@
         <v>102</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="H23" s="12">
         <v>1000</v>
@@ -61529,17 +62003,17 @@
         <v>133</v>
       </c>
       <c r="R23" s="17" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="12">
         <v>1000</v>
       </c>
       <c r="V23" s="17" t="s">
+        <v>1751</v>
+      </c>
+      <c r="W23" s="12" t="s">
         <v>1752</v>
-      </c>
-      <c r="W23" s="12" t="s">
-        <v>1753</v>
       </c>
       <c r="Z23" s="12">
         <v>1</v>
@@ -61556,14 +62030,14 @@
         <v>109</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="D24" s="15"/>
       <c r="F24" s="12">
         <v>101</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="H24" s="12">
         <v>100</v>
@@ -61593,21 +62067,21 @@
         <v>0</v>
       </c>
       <c r="Q24" s="17" t="s">
+        <v>1768</v>
+      </c>
+      <c r="R24" s="17" t="s">
         <v>1769</v>
-      </c>
-      <c r="R24" s="17" t="s">
-        <v>1770</v>
       </c>
       <c r="T24" s="17"/>
       <c r="U24" s="12">
         <v>100</v>
       </c>
       <c r="V24" s="17" t="s">
+        <v>1751</v>
+      </c>
+      <c r="W24" s="12" t="s">
         <v>1752</v>
       </c>
-      <c r="W24" s="12" t="s">
-        <v>1753</v>
-      </c>
       <c r="Z24" s="12">
         <v>1</v>
       </c>
@@ -61615,7 +62089,7 @@
         <v>1</v>
       </c>
       <c r="AD24" s="17" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="25" spans="1:30" s="12" customFormat="1">
@@ -61638,7 +62112,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="H25" s="12">
         <v>19800</v>
@@ -61665,22 +62139,22 @@
         <v>8</v>
       </c>
       <c r="Q25" s="17" t="s">
+        <v>1798</v>
+      </c>
+      <c r="R25" s="17" t="s">
         <v>1799</v>
       </c>
-      <c r="R25" s="17" t="s">
-        <v>1800</v>
-      </c>
       <c r="T25" s="17" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="U25" s="17" t="s">
         <v>143</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="Z25" s="12">
         <v>1</v>
@@ -61747,13 +62221,13 @@
         <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>1742</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1743</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>1744</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>32</v>
@@ -61765,16 +62239,16 @@
         <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>1802</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>1803</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>1804</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>1805</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>39</v>
@@ -61815,7 +62289,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -61827,7 +62301,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="L2" s="2">
         <v>54</v>
@@ -61836,31 +62310,31 @@
         <v>999999</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>1808</v>
       </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>1809</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>1810</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>1811</v>
       </c>
       <c r="T2" s="2">
         <v>60000</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="3" spans="1:24" s="2" customFormat="1">
@@ -61871,7 +62345,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -61883,7 +62357,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="L3" s="2">
         <v>54</v>
@@ -61892,7 +62366,7 @@
         <v>999999</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -61901,22 +62375,22 @@
         <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="T3" s="2">
         <v>500000</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="W3" s="2">
         <v>8.3000000000000007</v>
@@ -61930,7 +62404,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -61955,19 +62429,19 @@
         <v>4</v>
       </c>
       <c r="Q4" s="2" t="s">
+        <v>1815</v>
+      </c>
+      <c r="S4" s="2" t="s">
         <v>1816</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>1817</v>
       </c>
       <c r="T4" s="2">
         <v>15000</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="2" customFormat="1">
@@ -61978,7 +62452,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -62005,10 +62479,10 @@
         <v>100000</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="6" spans="1:24" s="2" customFormat="1">
@@ -62019,7 +62493,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -62046,10 +62520,10 @@
         <v>100000</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="7" spans="1:24" s="2" customFormat="1">
@@ -62060,7 +62534,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -62072,7 +62546,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="L7" s="2">
         <v>56</v>
@@ -62081,7 +62555,7 @@
         <v>999999</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="O7" s="6">
         <v>0</v>
@@ -62090,22 +62564,22 @@
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="T7" s="2">
         <v>500000</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="W7" s="2">
         <v>8.3000000000000007</v>
@@ -62119,10 +62593,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="F8" s="2">
         <v>100</v>
@@ -62134,7 +62608,7 @@
         <v>125</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="L8" s="2">
         <v>57</v>
@@ -62149,22 +62623,22 @@
         <v>5</v>
       </c>
       <c r="Q8" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="R8" s="2" t="s">
         <v>1827</v>
       </c>
-      <c r="R8" s="2" t="s">
-        <v>1828</v>
-      </c>
       <c r="S8" s="2" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="T8" s="2">
         <v>100</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="9" spans="1:24" s="2" customFormat="1">
@@ -62175,10 +62649,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="F9" s="2">
         <v>1000</v>
@@ -62193,16 +62667,16 @@
         <v>6</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="T9" s="2">
         <v>1000</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="10" spans="1:24" s="2" customFormat="1">
@@ -62213,10 +62687,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="F10" s="2">
         <v>5800</v>
@@ -62231,16 +62705,16 @@
         <v>7</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="T10" s="2">
         <v>5800</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="2" customFormat="1">
@@ -62251,10 +62725,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="F11" s="2">
         <v>8800</v>
@@ -62269,16 +62743,16 @@
         <v>8</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="T11" s="2">
         <v>8800</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="12" spans="1:24" s="2" customFormat="1">
@@ -62289,10 +62763,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="F12" s="2">
         <v>18800</v>
@@ -62307,16 +62781,16 @@
         <v>9</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="T12" s="2">
         <v>18800</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="2" customFormat="1">
@@ -62327,7 +62801,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -62351,16 +62825,16 @@
         <v>0</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="T13" s="2">
         <v>70000</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="W13" s="2">
         <v>7</v>
@@ -62374,7 +62848,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -62398,16 +62872,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="T14" s="2">
         <v>180000</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="W14" s="2">
         <v>6</v>
@@ -62421,10 +62895,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="F15" s="2">
         <v>1500</v>
@@ -62445,16 +62919,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="T15" s="2">
         <v>1500</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="W15" s="2">
         <v>3</v>
@@ -62468,10 +62942,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="F16" s="3">
         <v>200</v>
@@ -62487,13 +62961,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="T16" s="3">
         <v>200</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="17" spans="1:22" s="3" customFormat="1">
@@ -62504,10 +62978,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="F17" s="3">
         <v>2000</v>
@@ -62523,13 +62997,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="T17" s="3">
         <v>2000</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="18" spans="1:22" s="3" customFormat="1">
@@ -62540,7 +63014,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -62559,13 +63033,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="T18" s="3">
         <v>20000</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="3" customFormat="1">
@@ -62576,7 +63050,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
@@ -62595,13 +63069,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="T19" s="3">
         <v>200000</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="20" spans="1:22" s="4" customFormat="1">
@@ -62612,7 +63086,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>14</v>
@@ -62630,16 +63104,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="T20" s="4">
         <v>300000</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="21" spans="1:22" s="4" customFormat="1">
@@ -62650,7 +63124,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>14</v>
@@ -62668,16 +63142,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="T21" s="4">
         <v>300000</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
   </sheetData>
